--- a/sorted_result/simulation_summary.xlsx
+++ b/sorted_result/simulation_summary.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DC22"/>
+  <dimension ref="A1:DC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2079,218 +2079,218 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>KDE</t>
+          <t>BKNN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.629</v>
+        <v>-1.116</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09797</v>
+        <v>-0.05920000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.164</v>
+        <v>-1.1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3094</v>
+        <v>-0.172</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.022932</v>
+        <v>-4.58</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01272</v>
+        <v>-3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.11745</v>
+        <v>-0.0725</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8166</v>
+        <v>-0.3027</v>
       </c>
       <c r="K8" t="n">
-        <v>4.197</v>
+        <v>3.07</v>
       </c>
       <c r="L8" t="n">
-        <v>1.02</v>
+        <v>-0.203</v>
       </c>
       <c r="M8" t="n">
-        <v>3.17</v>
+        <v>1.99</v>
       </c>
       <c r="N8" t="n">
-        <v>236.496</v>
+        <v>0.495</v>
       </c>
       <c r="O8" t="n">
-        <v>11075882.781</v>
+        <v>1.68</v>
       </c>
       <c r="P8" t="n">
-        <v>3.951</v>
+        <v>2.87</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.138</v>
+        <v>0.5707</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01413</v>
+        <v>0.0148</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3162</v>
+        <v>0.505</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05468000000000001</v>
+        <v>0.0502</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>0.429</v>
       </c>
       <c r="V8" t="n">
-        <v>1.618</v>
+        <v>0.205</v>
       </c>
       <c r="W8" t="n">
-        <v>0.008318000000000001</v>
+        <v>0.0134</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02762</v>
+        <v>0.6707000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0004189</v>
+        <v>0.000411</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1557</v>
+        <v>0.53</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.007351000000000001</v>
+        <v>0.00619</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.14</v>
+        <v>0.73</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.409999999999999</v>
+        <v>0.141</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.00012438</v>
+        <v>0.000309</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.2493535757064819</v>
+        <v>0.8823431968688965</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.3306429624557495</v>
+        <v>0.7005826711654664</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.2636776685714721</v>
+        <v>0.6584927558898925</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.2085294246673584</v>
+        <v>0.6491073846817017</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2157329797744751</v>
+        <v>0.742810320854187</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2048470735549926</v>
+        <v>0.7620019912719727</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.2179145097732544</v>
+        <v>0.6400213479995728</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0530094331227944</v>
+        <v>0.01264911064067351</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.007300692509009752</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.03470510689285412</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.01112754340464336</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.08897459072991319</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6.324555320336805e-05</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.008414438648999573</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.01683382837555903</v>
+        <v>0.008538149682454617</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.03772709017845573</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.01490711984999867</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.05497474167490197</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>711.0492178651676</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>34411249.93328693</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.02078995483935019</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.02071499725105246</v>
+        <v>0.002213594362117876</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.001183262908702504</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.01664531966249574</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.004292836410165709</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.1033870827951389</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.05349974039397028</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.001353430209997299</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.007832808493055916</v>
+        <v>0.01170042734262297</v>
       </c>
       <c r="BH8" t="n">
-        <v>7.34354591915014e-05</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.02189393624829589</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.001034112072155517</v>
+        <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.8315981935740097</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.3751444166362246</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>4.301673576127733e-05</v>
+        <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.1164378720483275</v>
+        <v>0.5167577064419698</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.1379338274786369</v>
+        <v>0.03151249847388884</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1141573215651297</v>
+        <v>0.05781041476555393</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.00712414377836379</v>
+        <v>0.03508100687923726</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.01679059971672756</v>
+        <v>0.05826869712815534</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.007884613668462454</v>
+        <v>0.04536817265370267</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.01690162264414578</v>
+        <v>0.01933893957680289</v>
       </c>
       <c r="BU8" t="n">
         <v>10</v>
@@ -2402,218 +2402,218 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>KDE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.439</v>
+        <v>-2.629</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.05864</v>
+        <v>-0.09797</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.293</v>
+        <v>-2.164</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1827</v>
+        <v>-0.3094</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.997</v>
+        <v>-0.022932</v>
       </c>
       <c r="H9" t="n">
-        <v>10.5336</v>
+        <v>0.01272</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07577</v>
+        <v>-0.11745</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2196</v>
+        <v>0.8166</v>
       </c>
       <c r="K9" t="n">
-        <v>3.031</v>
+        <v>4.197</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.070267</v>
+        <v>1.02</v>
       </c>
       <c r="M9" t="n">
-        <v>1.969</v>
+        <v>3.17</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3439</v>
+        <v>236.496</v>
       </c>
       <c r="O9" t="n">
-        <v>1.484</v>
+        <v>11075882.781</v>
       </c>
       <c r="P9" t="n">
-        <v>2.819</v>
+        <v>3.951</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.148</v>
+        <v>0.138</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01494</v>
+        <v>0.01413</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2501</v>
+        <v>0.3162</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05351</v>
+        <v>0.05468000000000001</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4438</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7945</v>
+        <v>1.618</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01029</v>
+        <v>0.008318000000000001</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03998</v>
+        <v>0.02762</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0004659</v>
+        <v>0.0004189</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.10709</v>
+        <v>0.1557</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.007070999999999999</v>
+        <v>0.007351000000000001</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.7190000000000001</v>
+        <v>14.14</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.3175</v>
+        <v>7.409999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.00021105</v>
+        <v>0.00012438</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.7824934244155883</v>
+        <v>0.2493535757064819</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7229666709899902</v>
+        <v>0.3306429624557495</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7184896469116211</v>
+        <v>0.2636776685714721</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.5720048666000366</v>
+        <v>0.2085294246673584</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.5847598552703858</v>
+        <v>0.2157329797744751</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6013256072998047</v>
+        <v>0.2048470735549926</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.6223112106323242</v>
+        <v>0.2179145097732544</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.05506561742341781</v>
+        <v>0.0530094331227944</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.001817324040083845</v>
+        <v>0.007300692509009752</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0402906109823782</v>
+        <v>0.03470510689285412</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.006549809157525126</v>
+        <v>0.01112754340464336</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.9305082243352585</v>
+        <v>0.08897459072991319</v>
       </c>
       <c r="AQ9" t="n">
-        <v>36.26453527805553</v>
+        <v>6.324555320336805e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.002317110269279389</v>
+        <v>0.008414438648999573</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.02419917353960667</v>
+        <v>0.01683382837555903</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.03212821536005724</v>
+        <v>0.03772709017845573</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.03792308005833797</v>
+        <v>0.01490711984999867</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.03414023367751824</v>
+        <v>0.05497474167490197</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.1129566780279551</v>
+        <v>711.0492178651676</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.1609140557357664</v>
+        <v>34411249.93328693</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.01595131481867387</v>
+        <v>0.02078995483935019</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.04487761134463376</v>
+        <v>0.02071499725105246</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.001834968967342802</v>
+        <v>0.001183262908702504</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.03014944259665324</v>
+        <v>0.01664531966249574</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.003035145978550473</v>
+        <v>0.004292836410165709</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.1354718502945251</v>
+        <v>0.1033870827951389</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.3552549163003316</v>
+        <v>0.05349974039397028</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.002719448473496051</v>
+        <v>0.001353430209997299</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.03928369183827361</v>
+        <v>0.007832808493055916</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.0001676063178337194</v>
+        <v>7.34354591915014e-05</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.03505726901957868</v>
+        <v>0.02189393624829589</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0007922324294184268</v>
+        <v>0.001034112072155517</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.5304543126205853</v>
+        <v>0.8315981935740097</v>
       </c>
       <c r="BL9" t="n">
-        <v>6.166267162734861</v>
+        <v>0.3751444166362246</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.0001400397979147356</v>
+        <v>4.301673576127733e-05</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.2488716372371799</v>
+        <v>0.1164378720483275</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.1723649184823564</v>
+        <v>0.1379338274786369</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.2409744733355781</v>
+        <v>0.1141573215651297</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.02973882570669457</v>
+        <v>0.00712414377836379</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.02363788713647412</v>
+        <v>0.01679059971672756</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.03932643575804532</v>
+        <v>0.007884613668462454</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.03564497423752778</v>
+        <v>0.01690162264414578</v>
       </c>
       <c r="BU9" t="n">
         <v>10</v>
@@ -2725,866 +2725,866 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20.486</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.47568</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.853499999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.258649999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-4.9635</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.3968</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.264115</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.3753</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.8955</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.2756335</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.8095</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.28895</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.7345</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.8985</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.04492</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.04505</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.156255</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.9319</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.30725</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.046095</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6.709989999999999</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.02328295</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17.853545</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.5885355</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>77.8595</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>31.75875</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.021755525</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.5132989883422852</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3979859828948974</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3930254817008972</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3189916849136353</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3310171604156494</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3362220764160156</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3473783612251281</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23.95854608540167</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.5482021799530381</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.306236908598377</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.686621763382842</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>2.116788220021326</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>26.31809359117192</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3487182987289612</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.1607433718040883</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.1407676323441915</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.2123120130045698</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.1653218551476896</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.09603260137222037</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.1188364643666156</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.08738752169142025</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.7717246918428877</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.03078474673566354</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.8158654091144407</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.1054348413151834</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.529602731361798</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.5801136798757185</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.03678280426331963</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>7.388649035684826</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.02341008356844501</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>18.20749464318341</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.5965702386799765</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>79.14532510747821</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>26.44492756829002</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.0221043750858911</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.4272299052276589</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.3540116454551666</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.37285111933829</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.2604308375957242</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.2611058469150847</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.2733469492790827</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.2831659476732717</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>20</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>20</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
           <t>WKNN</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>-1.446</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>-0.05919</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>-1.3</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-0.1845</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>-3.052</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>11.094</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>-0.07611999999999999</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>-0.2142</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>3.035</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>-0.08714</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M11" t="n">
         <v>1.968</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>0.3435</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>1.492</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>2.826</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>0.1376</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R11" t="n">
         <v>0.01415</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>0.2405</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T11" t="n">
         <v>0.05068</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U11" t="n">
         <v>0.3526</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V11" t="n">
         <v>0.8262</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W11" t="n">
         <v>0.009520000000000001</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X11" t="n">
         <v>0.03066</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y11" t="n">
         <v>0.0004125</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z11" t="n">
         <v>0.10063</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA11" t="n">
         <v>0.006339</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB11" t="n">
         <v>0.3923</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC11" t="n">
         <v>7.2869</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD11" t="n">
         <v>0.00017737</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE11" t="n">
         <v>0.7685018539428711</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF11" t="n">
         <v>0.754590916633606</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG11" t="n">
         <v>0.7360299587249756</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH11" t="n">
         <v>0.5753750801086426</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI11" t="n">
         <v>0.5860949993133545</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ11" t="n">
         <v>0.6036709547042847</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK11" t="n">
         <v>0.6121553421020508</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL11" t="n">
         <v>0.03921450978627397</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM11" t="n">
         <v>0.001853195438515144</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN11" t="n">
         <v>0.03972125095937666</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO11" t="n">
         <v>0.005169354139756946</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP11" t="n">
         <v>0.8742971780553539</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ11" t="n">
         <v>39.16505420794297</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR11" t="n">
         <v>0.002204439964153152</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS11" t="n">
         <v>0.02564631227551699</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT11" t="n">
         <v>0.03135814620371122</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU11" t="n">
         <v>0.03196071199318173</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV11" t="n">
         <v>0.02973961069759386</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW11" t="n">
         <v>0.09617489855004326</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX11" t="n">
         <v>0.1554062775794823</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY11" t="n">
         <v>0.01505545305418166</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ11" t="n">
         <v>0.03055486867914833</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA11" t="n">
         <v>0.001430811735422317</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB11" t="n">
         <v>0.03001203462316779</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC11" t="n">
         <v>0.002048197039132493</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD11" t="n">
         <v>0.0893335820892059</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE11" t="n">
         <v>0.4194048163767317</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF11" t="n">
         <v>0.002246261090988509</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG11" t="n">
         <v>0.02037575901790055</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH11" t="n">
         <v>0.0001044692937342516</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI11" t="n">
         <v>0.03520773431443091</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ11" t="n">
         <v>0.0005826081206284567</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK11" t="n">
         <v>0.2122085190456678</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL11" t="n">
         <v>8.03089684281899</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM11" t="n">
         <v>9.739842629346967e-05</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN11" t="n">
         <v>0.2324175100370163</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO11" t="n">
         <v>0.1972615790944507</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP11" t="n">
         <v>0.2640229743633328</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ11" t="n">
         <v>0.02443106174711874</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR11" t="n">
         <v>0.01984602497034127</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS11" t="n">
         <v>0.04528224986007943</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT11" t="n">
         <v>0.025110717349763</v>
       </c>
-      <c r="BU10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB10" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC10" t="n">
+      <c r="BU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>10</v>
+      </c>
+      <c r="DC11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>AKDE</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>-2.378</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>-0.0004069</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>-1.512</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>-0.07153000000000001</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>-0.013854656246</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>-2.568790566775e-10</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>0.340487</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>-0.412</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>8.495000000000001</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.1663</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M12" t="n">
         <v>3.962</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>18.9</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>40.6</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>13.98</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>0.6446</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R12" t="n">
         <v>0.0007563</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S12" t="n">
         <v>1.047</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T12" t="n">
         <v>0.1605</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U12" t="n">
         <v>10.013</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V12" t="n">
         <v>3.219</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W12" t="n">
         <v>0.001812</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X12" t="n">
         <v>0.742</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y12" t="n">
         <v>1.46e-06</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z12" t="n">
         <v>2.39</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA12" t="n">
         <v>0.10206</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB12" t="n">
         <v>764.6</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC12" t="n">
         <v>152.1</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD12" t="n">
         <v>4.1808e-05</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE12" t="n">
         <v>32.72142226696015</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF12" t="n">
         <v>36.52481560707092</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG12" t="n">
         <v>32.24812333583832</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH12" t="n">
         <v>32.5835346698761</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI12" t="n">
         <v>34.04165704250336</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ12" t="n">
         <v>34.29483671188355</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK12" t="n">
         <v>32.05289101600647</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL12" t="n">
         <v>0.08495750571772798</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM12" t="n">
         <v>2.158934922594937e-05</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN12" t="n">
         <v>0.06214677966091426</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO12" t="n">
         <v>0.006386974592437677</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP12" t="n">
         <v>0.03769382195910475</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ12" t="n">
         <v>8.057414689121063e-10</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR12" t="n">
         <v>1.085544304649362</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS12" t="n">
         <v>0.02345681611434556</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT12" t="n">
         <v>0.04403281604540902</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU12" t="n">
         <v>0.03171767821122963</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV12" t="n">
         <v>0.04871686908385366</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW12" t="n">
         <v>2.912043955712207</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX12" t="n">
         <v>2.348048835380842</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY12" t="n">
         <v>23.30250487250959</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ12" t="n">
         <v>0.05049796475546758</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA12" t="n">
         <v>1.505582205586192e-05</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB12" t="n">
         <v>0.04739667123801468</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC12" t="n">
         <v>0.009501461875826145</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD12" t="n">
         <v>0.581015394709029</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE12" t="n">
         <v>0.220577524794446</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF12" t="n">
         <v>0.0008267043002186452</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG12" t="n">
         <v>0.142205641394582</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH12" t="n">
         <v>7.717224601860144e-08</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI12" t="n">
         <v>0.2622128058572952</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ12" t="n">
         <v>0.009837027554658526</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK12" t="n">
         <v>89.71584772677197</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL12" t="n">
         <v>14.80577965225443</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM12" t="n">
         <v>0.0001111016325312599</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN12" t="n">
         <v>3.230486950787054</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO12" t="n">
         <v>6.0564777234082</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP12" t="n">
         <v>0.2677733994606842</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ12" t="n">
         <v>0.3695128378005537</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR12" t="n">
         <v>0.6737111071935058</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS12" t="n">
         <v>0.7833647113116341</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BT12" t="n">
         <v>0.4607982557641099</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>10</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>10</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>10</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>10</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB11" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>AKNN</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-2.372</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.0004358</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-1.659</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.10096</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-4.898300000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-8.309000000000001</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.003265</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-0.4429</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8.384</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.12177</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.792</v>
-      </c>
-      <c r="O12" t="n">
-        <v>5.512</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6.317</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.6774</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0007267</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.9475999999999999</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.1325</v>
-      </c>
-      <c r="U12" t="n">
-        <v>7.154000000000001</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.246</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.0010601</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.8929</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.375e-06</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.07905</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>902.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>206.99</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.605e-06</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>5.30352520942688</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>4.840296816825867</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>5.470179104804993</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>5.031724262237549</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>5.299485039710999</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>5.092318773269653</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>4.793807435035705</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.07997221739801615</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>2.109133576719228e-05</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0.07866242926440661</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0.01483548299030252</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>39.76985639638254</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1.236360698897283</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0.0003134131104114469</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0.09912220291696061</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0.02836272984824344</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0.0296572288358542</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0.09935346552139541</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0.8125788850594411</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0.1792453315679073</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0.06272515001532027</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0.04033526166189247</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>1.450708639098686e-05</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>0.04138759878675413</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>0.005169354139756947</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>1.548871990980677</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0.337842829993146</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0.0001061994454892407</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0.2040334667537548</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>8.834905520465717e-08</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0.2065618013519871</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0.00616265635366222</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>228.322992466569</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>116.3846157263827</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>6.835243635420435e-07</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>1.020985363663135</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>0.5323512648389345</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>0.1034597932966373</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>0.07983923526305799</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>0.1055223808916088</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>0.1250885539107794</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>0.07012823477486971</v>
       </c>
       <c r="BU12" t="n">
         <v>10</v>
@@ -3696,218 +3696,218 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>AWNN</t>
+          <t>AKNN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.443</v>
+        <v>-2.372</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0005380000000000001</v>
+        <v>-0.0004358</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.786</v>
+        <v>-1.659</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.11364</v>
+        <v>-0.10096</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.053</v>
+        <v>-4.898300000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>-9.032999999999999</v>
+        <v>-8.309000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.003354</v>
+        <v>-0.003265</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.4989</v>
+        <v>-0.4429</v>
       </c>
       <c r="K13" t="n">
-        <v>8.081</v>
+        <v>8.384</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.035096</v>
+        <v>0.12177</v>
       </c>
       <c r="M13" t="n">
-        <v>3.352</v>
+        <v>3.556</v>
       </c>
       <c r="N13" t="n">
-        <v>1.827</v>
+        <v>1.792</v>
       </c>
       <c r="O13" t="n">
-        <v>5.882</v>
+        <v>5.512</v>
       </c>
       <c r="P13" t="n">
-        <v>6.29</v>
+        <v>6.317</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5766</v>
+        <v>0.6774</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0006263</v>
+        <v>0.0007267</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8779</v>
+        <v>0.9475999999999999</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1221</v>
+        <v>0.1325</v>
       </c>
       <c r="U13" t="n">
-        <v>5.326</v>
+        <v>7.154000000000001</v>
       </c>
       <c r="V13" t="n">
-        <v>1.742</v>
+        <v>2.246</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0009511000000000001</v>
+        <v>0.0010601</v>
       </c>
       <c r="X13" t="n">
-        <v>0.6072</v>
+        <v>0.8929</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.083e-06</v>
+        <v>1.375e-06</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.638</v>
+        <v>1.837</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06932000000000001</v>
+        <v>0.07905</v>
       </c>
       <c r="AB13" t="n">
-        <v>396.58</v>
+        <v>902.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>102.39</v>
+        <v>206.99</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.823e-06</v>
+        <v>3.605e-06</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.28248498439789</v>
+        <v>5.30352520942688</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.74601149559021</v>
+        <v>4.840296816825867</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.42790677547455</v>
+        <v>5.470179104804993</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.28527257442474</v>
+        <v>5.031724262237549</v>
       </c>
       <c r="AI13" t="n">
-        <v>11.09072163105011</v>
+        <v>5.299485039710999</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.846584033966065</v>
+        <v>5.092318773269653</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.35725584030151</v>
+        <v>4.793807435035705</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.08895067297228411</v>
+        <v>0.07997221739801615</v>
       </c>
       <c r="AM13" t="n">
-        <v>3.06883980972904e-05</v>
+        <v>2.109133576719228e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.03134042472944845</v>
+        <v>0.07866242926440661</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.01592148792600044</v>
+        <v>0.01483548299030252</v>
       </c>
       <c r="AP13" t="n">
-        <v>25.51548290308803</v>
+        <v>39.76985639638254</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.538620666352696</v>
+        <v>1.236360698897283</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0002904861824979326</v>
+        <v>0.0003134131104114469</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.05739812230765433</v>
+        <v>0.09912220291696061</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.03446415206816773</v>
+        <v>0.02836272984824344</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.02700087537675605</v>
+        <v>0.0296572288358542</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.07036413227711331</v>
+        <v>0.09935346552139541</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.3152089254235462</v>
+        <v>0.8125788850594411</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1802960528316316</v>
+        <v>0.1792453315679073</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.03018461712712487</v>
+        <v>0.06272515001532027</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.04422467888207014</v>
+        <v>0.04033526166189247</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.031773015520156e-05</v>
+        <v>1.450708639098686e-05</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.04492079449183616</v>
+        <v>0.04138759878675413</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.004653553003411</v>
+        <v>0.005169354139756947</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.81381856252983</v>
+        <v>1.548871990980677</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.2130101719010933</v>
+        <v>0.337842829993146</v>
       </c>
       <c r="BF13" t="n">
-        <v>5.507056079854886e-05</v>
+        <v>0.0001061994454892407</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1222445636146382</v>
+        <v>0.2040334667537548</v>
       </c>
       <c r="BH13" t="n">
-        <v>7.11883261341196e-08</v>
+        <v>8.834905520465717e-08</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.2023638087976976</v>
+        <v>0.2065618013519871</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.005519621565127651</v>
+        <v>0.00616265635366222</v>
       </c>
       <c r="BK13" t="n">
-        <v>235.2398955203909</v>
+        <v>228.322992466569</v>
       </c>
       <c r="BL13" t="n">
-        <v>47.42445337352638</v>
+        <v>116.3846157263827</v>
       </c>
       <c r="BM13" t="n">
-        <v>3.091583556834409e-07</v>
+        <v>6.835243635420435e-07</v>
       </c>
       <c r="BN13" t="n">
-        <v>2.449381294775184</v>
+        <v>1.020985363663135</v>
       </c>
       <c r="BO13" t="n">
-        <v>2.226712031629597</v>
+        <v>0.5323512648389345</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.1589402538544985</v>
+        <v>0.1034597932966373</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.2023856135835543</v>
+        <v>0.07983923526305799</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.2455220045146702</v>
+        <v>0.1055223808916088</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.4984371030750315</v>
+        <v>0.1250885539107794</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.131168793515361</v>
+        <v>0.07012823477486971</v>
       </c>
       <c r="BU13" t="n">
         <v>10</v>
@@ -4019,218 +4019,218 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>KDE</t>
+          <t>AWNN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-4.061999999999999</v>
+        <v>-2.443</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006775000000000001</v>
+        <v>-0.0005380000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.483</v>
+        <v>-1.786</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.07665</v>
+        <v>-0.11364</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03685</v>
+        <v>-10.053</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01509</v>
+        <v>-9.032999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02068</v>
+        <v>-0.003354</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6133</v>
+        <v>-0.4989</v>
       </c>
       <c r="K14" t="n">
-        <v>9.462999999999999</v>
+        <v>8.081</v>
       </c>
       <c r="L14" t="n">
-        <v>1.188</v>
+        <v>-0.035096</v>
       </c>
       <c r="M14" t="n">
-        <v>5.031000000000001</v>
+        <v>3.352</v>
       </c>
       <c r="N14" t="n">
-        <v>283.93</v>
+        <v>1.827</v>
       </c>
       <c r="O14" t="n">
-        <v>20601335</v>
+        <v>5.882</v>
       </c>
       <c r="P14" t="n">
-        <v>7.598000000000001</v>
+        <v>6.29</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6647999999999999</v>
+        <v>0.5766</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0007122</v>
+        <v>0.0006263</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9970000000000001</v>
+        <v>0.8779</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1635</v>
+        <v>0.1221</v>
       </c>
       <c r="U14" t="n">
-        <v>10.021</v>
+        <v>5.326</v>
       </c>
       <c r="V14" t="n">
-        <v>3.219</v>
+        <v>1.742</v>
       </c>
       <c r="W14" t="n">
-        <v>0.001619</v>
+        <v>0.0009511000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7468</v>
+        <v>0.6072</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.346e-06</v>
+        <v>1.083e-06</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.108</v>
+        <v>1.638</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.10395</v>
+        <v>0.06932000000000001</v>
       </c>
       <c r="AB14" t="n">
-        <v>764.9</v>
+        <v>396.58</v>
       </c>
       <c r="AC14" t="n">
-        <v>152.1</v>
+        <v>102.39</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.789999999999999e-06</v>
+        <v>2.823e-06</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.321905517578125</v>
+        <v>13.28248498439789</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.233694577217102</v>
+        <v>9.74601149559021</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.2242249488830566</v>
+        <v>13.42790677547455</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2175778150558471</v>
+        <v>11.28527257442474</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.228579831123352</v>
+        <v>11.09072163105011</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.2219452142715454</v>
+        <v>7.846584033966065</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.2229474067687988</v>
+        <v>10.35725584030151</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.1139005414093072</v>
+        <v>0.08895067297228411</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0001285171843243801</v>
+        <v>3.06883980972904e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.08246884933786275</v>
+        <v>0.03134042472944845</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.002141261310536385</v>
+        <v>0.01592148792600044</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.02838357310527028</v>
+        <v>25.51548290308803</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0001370320319406302</v>
+        <v>0.538620666352696</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.000428952211790545</v>
+        <v>0.0002904861824979326</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.02465337479715284</v>
+        <v>0.05739812230765433</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.04029061098237827</v>
+        <v>0.03446415206816773</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0382390143992</v>
+        <v>0.02700087537675605</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.05801340841181099</v>
+        <v>0.07036413227711331</v>
       </c>
       <c r="AW14" t="n">
-        <v>769.0515790388979</v>
+        <v>0.3152089254235462</v>
       </c>
       <c r="AX14" t="n">
-        <v>36273218.32091404</v>
+        <v>0.1802960528316316</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.03293090409394256</v>
+        <v>0.03018461712712487</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.04872097426502608</v>
+        <v>0.04422467888207014</v>
       </c>
       <c r="BA14" t="n">
-        <v>1.340646610159937e-05</v>
+        <v>1.031773015520156e-05</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.04793745925682755</v>
+        <v>0.04492079449183616</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.004927248499698158</v>
+        <v>0.004653553003411</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.5711285124888947</v>
+        <v>1.81381856252983</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.220577524794446</v>
+        <v>0.2130101719010933</v>
       </c>
       <c r="BF14" t="n">
-        <v>7.563802688536443e-05</v>
+        <v>5.507056079854886e-05</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1206830559772166</v>
+        <v>0.1222445636146382</v>
       </c>
       <c r="BH14" t="n">
-        <v>8.113089560840688e-08</v>
+        <v>7.11883261341196e-08</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.2615254395953777</v>
+        <v>0.2023638087976976</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.006206672037233625</v>
+        <v>0.005519621565127651</v>
       </c>
       <c r="BK14" t="n">
-        <v>89.62942225259144</v>
+        <v>235.2398955203909</v>
       </c>
       <c r="BL14" t="n">
-        <v>14.80577965225443</v>
+        <v>47.42445337352638</v>
       </c>
       <c r="BM14" t="n">
-        <v>7.133800607748381e-07</v>
+        <v>3.091583556834409e-07</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.1547083873966307</v>
+        <v>2.449381294775184</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.0263564982197635</v>
+        <v>2.226712031629597</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.02126111008069654</v>
+        <v>0.1589402538544985</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.01279239197527161</v>
+        <v>0.2023856135835543</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.02207919138109826</v>
+        <v>0.2455220045146702</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.01106184355033581</v>
+        <v>0.4984371030750315</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.01784106114099797</v>
+        <v>0.131168793515361</v>
       </c>
       <c r="BU14" t="n">
         <v>10</v>
@@ -4342,218 +4342,218 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>BKNN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-2.38</v>
+        <v>0.2372</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0005093000000000001</v>
+        <v>-0.0004200000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.669</v>
+        <v>0.0775</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.10505</v>
+        <v>-0.00685</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.851</v>
+        <v>-1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.309000000000001</v>
+        <v>-368</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.003243999999999999</v>
+        <v>-0.00296</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.4824</v>
+        <v>3.495</v>
       </c>
       <c r="K15" t="n">
-        <v>8.118</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04743799999999999</v>
+        <v>3.88</v>
       </c>
       <c r="M15" t="n">
-        <v>3.47</v>
+        <v>7.35</v>
       </c>
       <c r="N15" t="n">
-        <v>1.634</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
-        <v>5.515</v>
+        <v>2.06</v>
       </c>
       <c r="P15" t="n">
-        <v>6.331</v>
+        <v>6.21</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6424000000000001</v>
+        <v>2.516</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0006349</v>
+        <v>0.000778</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9262</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>0.128</v>
+        <v>0.203</v>
       </c>
       <c r="U15" t="n">
-        <v>6.840000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="V15" t="n">
-        <v>2.246</v>
+        <v>184</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0010023</v>
+        <v>0.00202</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8244</v>
+        <v>59.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.0917e-06</v>
+        <v>1.61e-06</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.779</v>
+        <v>8.24</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="AB15" t="n">
-        <v>836.9</v>
+        <v>741</v>
       </c>
       <c r="AC15" t="n">
-        <v>206.99</v>
+        <v>332000</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.19e-06</v>
+        <v>1.56e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.579427862167358</v>
+        <v>1.502272772789002</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.533268427848816</v>
+        <v>1.632390832901001</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.581209921836853</v>
+        <v>1.517232918739319</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.593029713630676</v>
+        <v>1.494464707374573</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.721455240249634</v>
+        <v>1.878908777236938</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.705489158630371</v>
+        <v>1.819855999946594</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.604481673240662</v>
+        <v>1.494787979125977</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.1215638835254032</v>
+        <v>1.610231784557739</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.620211542084314e-05</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.09048634028281716</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0186213288701126</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>40.547094826743</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.236360698897283</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0003266054364383898</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.04975540171679857</v>
+        <v>0.01581138830084198</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.04467164151400266</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.04526523556893425</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1200925568976789</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.2887213189218975</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1762101018670612</v>
+        <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.04998888765404669</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.0563642912962927</v>
+        <v>0.05059644256269417</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.979028942576525e-05</v>
+        <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.03570807565056769</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.005416025603090643</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.239166386460403</v>
+        <v>0</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.337842829993146</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>7.362827053667781e-05</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.2671113791827089</v>
+        <v>6.008327554319923</v>
       </c>
       <c r="BH15" t="n">
-        <v>8.617817460226098e-08</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.1795333457111024</v>
+        <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.006851115075502509</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>268.1518848215192</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>116.3846157263827</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>4.610615769913794e-07</v>
+        <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.307227564171844</v>
+        <v>0.0639940548640926</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.13001705204026</v>
+        <v>0.05757183992282543</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.05874252415473483</v>
+        <v>0.08779154487279078</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.06370571979509967</v>
+        <v>0.04561212926374034</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.04341164607482446</v>
+        <v>0.09181203730825126</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.05928014970185611</v>
+        <v>0.06830682928324587</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.03666255592682786</v>
+        <v>0.04336603283155017</v>
       </c>
       <c r="BU15" t="n">
         <v>10</v>
@@ -4665,218 +4665,218 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>WKNN</t>
+          <t>KDE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.418</v>
+        <v>-4.061999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0005308999999999999</v>
+        <v>0.006775000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.691</v>
+        <v>-2.483</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.10674</v>
+        <v>-0.07665</v>
       </c>
       <c r="G16" t="n">
-        <v>2.166999999999999</v>
+        <v>0.03685</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.917</v>
+        <v>0.01509</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.003334</v>
+        <v>0.02068</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.4751</v>
+        <v>0.6133</v>
       </c>
       <c r="K16" t="n">
-        <v>8.116</v>
+        <v>9.462999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02316</v>
+        <v>1.188</v>
       </c>
       <c r="M16" t="n">
-        <v>3.46</v>
+        <v>5.031000000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>1.601</v>
+        <v>283.93</v>
       </c>
       <c r="O16" t="n">
-        <v>5.429</v>
+        <v>20601335</v>
       </c>
       <c r="P16" t="n">
-        <v>6.321</v>
+        <v>7.598000000000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5993999999999999</v>
+        <v>0.6647999999999999</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0006297000000000001</v>
+        <v>0.0007122</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9064</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1267</v>
+        <v>0.1635</v>
       </c>
       <c r="U16" t="n">
-        <v>7.373</v>
+        <v>10.021</v>
       </c>
       <c r="V16" t="n">
-        <v>2.494</v>
+        <v>3.219</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0009655</v>
+        <v>0.001619</v>
       </c>
       <c r="X16" t="n">
-        <v>0.6766</v>
+        <v>0.7468</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.08e-06</v>
+        <v>1.346e-06</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.755</v>
+        <v>2.108</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.07422999999999999</v>
+        <v>0.10395</v>
       </c>
       <c r="AB16" t="n">
-        <v>982.5</v>
+        <v>764.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>292.68</v>
+        <v>152.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.985e-06</v>
+        <v>8.789999999999999e-06</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.103722715377808</v>
+        <v>0.321905517578125</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.070982193946838</v>
+        <v>0.233694577217102</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.174577021598816</v>
+        <v>0.2242249488830566</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.073425054550171</v>
+        <v>0.2175778150558471</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.243249106407165</v>
+        <v>0.228579831123352</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2.226956009864807</v>
+        <v>0.2219452142715454</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.101689767837525</v>
+        <v>0.2229474067687988</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.09807026959164426</v>
+        <v>0.1139005414093072</v>
       </c>
       <c r="AM16" t="n">
-        <v>4.250084966470933e-05</v>
+        <v>0.0001285171843243801</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.07795297727904092</v>
+        <v>0.08246884933786275</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.01724678391919942</v>
+        <v>0.002141261310536385</v>
       </c>
       <c r="AP16" t="n">
-        <v>62.20955268731286</v>
+        <v>0.02838357310527028</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.327253220418437</v>
+        <v>0.0001370320319406302</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.000331602171283603</v>
+        <v>0.000428952211790545</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.04222019000957298</v>
+        <v>0.02465337479715284</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.07933053216343203</v>
+        <v>0.04029061098237827</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.06747793384177939</v>
+        <v>0.0382390143992</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.1206464071390258</v>
+        <v>0.05801340841181099</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.341644714741954</v>
+        <v>769.0515790388979</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.1707141860928182</v>
+        <v>36273218.32091404</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.03956710193526386</v>
+        <v>0.03293090409394256</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.05247052082413093</v>
+        <v>0.04872097426502608</v>
       </c>
       <c r="BA16" t="n">
-        <v>1.590282993683828e-05</v>
+        <v>1.340646610159937e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.03814941385890192</v>
+        <v>0.04793745925682755</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.006848357467305576</v>
+        <v>0.004927248499698158</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.228929525146897</v>
+        <v>0.5711285124888947</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.4090422417740686</v>
+        <v>0.220577524794446</v>
       </c>
       <c r="BF16" t="n">
-        <v>4.361256190085096e-05</v>
+        <v>7.563802688536443e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.1929600995024619</v>
+        <v>0.1206830559772166</v>
       </c>
       <c r="BH16" t="n">
-        <v>8.299933065325825e-08</v>
+        <v>8.113089560840688e-08</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.2093508485241409</v>
+        <v>0.2615254395953777</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.007854658914724859</v>
+        <v>0.006206672037233625</v>
       </c>
       <c r="BK16" t="n">
-        <v>398.734456332365</v>
+        <v>89.62942225259144</v>
       </c>
       <c r="BL16" t="n">
-        <v>170.3293593796051</v>
+        <v>14.80577965225443</v>
       </c>
       <c r="BM16" t="n">
-        <v>3.545654617509532e-07</v>
+        <v>7.133800607748381e-07</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.4936777165081552</v>
+        <v>0.1547083873966307</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.2131455281680617</v>
+        <v>0.0263564982197635</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.08851582560988434</v>
+        <v>0.02126111008069654</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.04367279768357871</v>
+        <v>0.01279239197527161</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.05911939484865696</v>
+        <v>0.02207919138109826</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.0882051382869765</v>
+        <v>0.01106184355033581</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.09012320864318868</v>
+        <v>0.01784106114099797</v>
       </c>
       <c r="BU16" t="n">
         <v>10</v>
@@ -4985,546 +4985,544 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>8</v>
-      </c>
+      <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>AKDE</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-3.274</v>
+        <v>12.23</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.551e-06</v>
+        <v>0.001985349999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.16</v>
+        <v>4.8155</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.03687</v>
+        <v>2.447475</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.667557093260004e-06</v>
+        <v>-22.1255</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.070423221012661e-22</v>
+        <v>-9.079499999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.00022494</v>
+        <v>-0.000737</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.4784</v>
+        <v>-0.6531</v>
       </c>
       <c r="K17" t="n">
-        <v>14.36</v>
+        <v>7.884</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7958000000000001</v>
+        <v>-0.156281</v>
       </c>
       <c r="M17" t="n">
-        <v>15.465</v>
+        <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>30.26</v>
+        <v>1.482</v>
       </c>
       <c r="O17" t="n">
-        <v>72.97999999999999</v>
+        <v>5.317500000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>25.17</v>
+        <v>6.1955</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.023</v>
+        <v>1.8027</v>
       </c>
       <c r="R17" t="n">
-        <v>1.491e-05</v>
+        <v>0.00092245</v>
       </c>
       <c r="S17" t="n">
-        <v>2.58</v>
+        <v>1.5731</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2013</v>
+        <v>0.1595</v>
       </c>
       <c r="U17" t="n">
-        <v>39.86</v>
+        <v>9.92</v>
       </c>
       <c r="V17" t="n">
-        <v>6.245</v>
+        <v>2.773</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0003058</v>
+        <v>0.00281115</v>
       </c>
       <c r="X17" t="n">
-        <v>8.440000000000001</v>
+        <v>44.6622</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.15e-10</v>
+        <v>4.904585e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.09</v>
+        <v>51.3895</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.1888</v>
+        <v>0.20115</v>
       </c>
       <c r="AB17" t="n">
-        <v>39810</v>
+        <v>3288.45</v>
       </c>
       <c r="AC17" t="n">
-        <v>2356</v>
+        <v>241.995</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.51839e-05</v>
+        <v>0.0004555949999999999</v>
       </c>
       <c r="AE17" t="n">
-        <v>70.48898408412933</v>
+        <v>0.8614360690116882</v>
       </c>
       <c r="AF17" t="n">
-        <v>89.57268259525299</v>
+        <v>0.8431010603904724</v>
       </c>
       <c r="AG17" t="n">
-        <v>66.83736712932587</v>
+        <v>0.8612284898757935</v>
       </c>
       <c r="AH17" t="n">
-        <v>62.83733732700348</v>
+        <v>0.8710864305496215</v>
       </c>
       <c r="AI17" t="n">
-        <v>64.82391021251678</v>
+        <v>0.9594759941101074</v>
       </c>
       <c r="AJ17" t="n">
-        <v>66.18756134510041</v>
+        <v>0.9397562742233276</v>
       </c>
       <c r="AK17" t="n">
-        <v>61.46244895458221</v>
+        <v>0.8828855633735657</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.2169587774465719</v>
+        <v>15.51549140969149</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.305075561882231e-07</v>
+        <v>0.002559749170997239</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.08192137151629671</v>
+        <v>6.65324809872275</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.05027831540535144</v>
+        <v>2.618866752679386</v>
       </c>
       <c r="AP17" t="n">
-        <v>8.268890069771528e-06</v>
+        <v>33.61997299147292</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.156290167753931e-21</v>
+        <v>1.161457682125535</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.0004401177801957613</v>
+        <v>0.002581931345656621</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.03130921057239653</v>
+        <v>0.1785549893184906</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.06992058987801011</v>
+        <v>0.2420395791905471</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.04706213387049555</v>
+        <v>0.2113202973263696</v>
       </c>
       <c r="AV17" t="n">
-        <v>20.02107181613079</v>
+        <v>0.240372517914218</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.650346691046347</v>
+        <v>0.2525991207218934</v>
       </c>
       <c r="AX17" t="n">
-        <v>11.48175364074089</v>
+        <v>0.2361505986932023</v>
       </c>
       <c r="AY17" t="n">
-        <v>17.97523296093823</v>
+        <v>0.1432140466500925</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.07008724721532608</v>
+        <v>1.191410579280314</v>
       </c>
       <c r="BA17" t="n">
-        <v>6.806043066438984e-07</v>
+        <v>0.000295334328836784</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.1220200347848207</v>
+        <v>0.6641602454068954</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.03849112451808425</v>
+        <v>0.03253257476826316</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.881049191604411</v>
+        <v>3.273078383611238</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.5339423606012584</v>
+        <v>0.5885673954165047</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.0002233098495115899</v>
+        <v>0.001856532655956145</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.7958084638348049</v>
+        <v>45.12893593460269</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.685196988155655e-10</v>
+        <v>4.919995554370585e-05</v>
       </c>
       <c r="BI17" t="n">
-        <v>2.674343117685372</v>
+        <v>50.89944901728464</v>
       </c>
       <c r="BJ17" t="n">
-        <v>2.829585474156163</v>
+        <v>0.1292054443206836</v>
       </c>
       <c r="BK17" t="n">
-        <v>7155.953232565642</v>
+        <v>2521.99896646333</v>
       </c>
       <c r="BL17" t="n">
-        <v>943.2237863365783</v>
+        <v>87.78424792757825</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.0002158982100020748</v>
+        <v>0.0004641578448454566</v>
       </c>
       <c r="BN17" t="n">
-        <v>14.53768929933093</v>
+        <v>0.7666495777603044</v>
       </c>
       <c r="BO17" t="n">
-        <v>10.23645011321653</v>
+        <v>0.7138492275124917</v>
       </c>
       <c r="BP17" t="n">
-        <v>11.79329283112042</v>
+        <v>0.7397998415705064</v>
       </c>
       <c r="BQ17" t="n">
-        <v>3.412020182051087</v>
+        <v>0.7420124594895623</v>
       </c>
       <c r="BR17" t="n">
-        <v>2.375140607392452</v>
+        <v>0.7824025219628642</v>
       </c>
       <c r="BS17" t="n">
-        <v>3.846035765756636</v>
+        <v>0.7866969207383123</v>
       </c>
       <c r="BT17" t="n">
-        <v>4.364564785570344</v>
+        <v>0.7407875057900278</v>
       </c>
       <c r="BU17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BV17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BW17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BX17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BY17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BZ17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CA17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CB17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CC17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CD17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CE17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CF17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CG17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CH17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CI17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CJ17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CK17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CL17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CM17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CN17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CO17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CP17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CQ17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CR17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CS17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CT17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CU17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CV17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CW17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CX17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CY17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CZ17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="DA17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="DB17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="DC17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>AKNN</t>
+          <t>WKNN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-3.609</v>
+        <v>-2.418</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.988e-07</v>
+        <v>-0.0005308999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.251</v>
+        <v>-1.691</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.03772</v>
+        <v>-0.10674</v>
       </c>
       <c r="G18" t="n">
-        <v>-63.01000000000001</v>
+        <v>2.166999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.193999999999999</v>
+        <v>-8.917</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0002392</v>
+        <v>-0.003334</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.5356</v>
+        <v>-0.4751</v>
       </c>
       <c r="K18" t="n">
-        <v>14.9</v>
+        <v>8.116</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7626999999999999</v>
+        <v>0.02316</v>
       </c>
       <c r="M18" t="n">
-        <v>5.257</v>
+        <v>3.46</v>
       </c>
       <c r="N18" t="n">
-        <v>3.669</v>
+        <v>1.601</v>
       </c>
       <c r="O18" t="n">
-        <v>11.24</v>
+        <v>5.429</v>
       </c>
       <c r="P18" t="n">
-        <v>9.842000000000001</v>
+        <v>6.321</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.801</v>
+        <v>0.5993999999999999</v>
       </c>
       <c r="R18" t="n">
-        <v>1.469e-05</v>
+        <v>0.0006297000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>2.557</v>
+        <v>0.9064</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1705</v>
+        <v>0.1267</v>
       </c>
       <c r="U18" t="n">
-        <v>26.2</v>
+        <v>7.373</v>
       </c>
       <c r="V18" t="n">
-        <v>4.152</v>
+        <v>2.494</v>
       </c>
       <c r="W18" t="n">
-        <v>0.000117</v>
+        <v>0.0009655</v>
       </c>
       <c r="X18" t="n">
-        <v>6.414</v>
+        <v>0.6766</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.157e-10</v>
+        <v>1.08e-06</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.22</v>
+        <v>1.755</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.2845</v>
+        <v>0.07422999999999999</v>
       </c>
       <c r="AB18" t="n">
-        <v>24750</v>
+        <v>982.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1444.9</v>
+        <v>292.68</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.1295e-07</v>
+        <v>2.985e-06</v>
       </c>
       <c r="AE18" t="n">
-        <v>11.89475903511047</v>
+        <v>2.103722715377808</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.86331295967102</v>
+        <v>2.070982193946838</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.37341811656952</v>
+        <v>2.174577021598816</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.924426078796387</v>
+        <v>2.073425054550171</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.920165252685546</v>
+        <v>2.243249106407165</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.049192857742309</v>
+        <v>2.226956009864807</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.251297664642333</v>
+        <v>2.101689767837525</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.1344494948546356</v>
+        <v>0.09807026959164426</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.135027831278942e-06</v>
+        <v>4.250084966470933e-05</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.1587765725792065</v>
+        <v>0.07795297727904092</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.1115242753843306</v>
+        <v>0.01724678391919942</v>
       </c>
       <c r="AP18" t="n">
-        <v>10.87325464921459</v>
+        <v>62.20955268731286</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.82465339174321</v>
+        <v>1.327253220418437</v>
       </c>
       <c r="AR18" t="n">
-        <v>8.166707482891199e-05</v>
+        <v>0.000331602171283603</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.03053304221113033</v>
+        <v>0.04222019000957298</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6289320754704402</v>
+        <v>0.07933053216343203</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.2405424656433408</v>
+        <v>0.06747793384177939</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.2450872860386231</v>
+        <v>0.1206464071390258</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.2023445905709697</v>
+        <v>0.341644714741954</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.3806427312965379</v>
+        <v>0.1707141860928182</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.1558346702259946</v>
+        <v>0.03956710193526386</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.08238797107453118</v>
+        <v>0.05247052082413093</v>
       </c>
       <c r="BA18" t="n">
-        <v>6.118278625016464e-07</v>
+        <v>1.590282993683828e-05</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.1026374417278823</v>
+        <v>0.03814941385890192</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.01684735389707635</v>
+        <v>0.006848357467305576</v>
       </c>
       <c r="BD18" t="n">
-        <v>2.870927066684596</v>
+        <v>1.228929525146897</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.634311525286362</v>
+        <v>0.4090422417740686</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.76572301841987e-05</v>
+        <v>4.361256190085096e-05</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.657304258991899</v>
+        <v>0.1929600995024619</v>
       </c>
       <c r="BH18" t="n">
-        <v>1.850483720544442e-10</v>
+        <v>8.299933065325825e-08</v>
       </c>
       <c r="BI18" t="n">
-        <v>12.61505273693121</v>
+        <v>0.2093508485241409</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.06285830626628962</v>
+        <v>0.007854658914724859</v>
       </c>
       <c r="BK18" t="n">
-        <v>5854.580353117643</v>
+        <v>398.734456332365</v>
       </c>
       <c r="BL18" t="n">
-        <v>1152.314718777432</v>
+        <v>170.3293593796051</v>
       </c>
       <c r="BM18" t="n">
-        <v>6.177986457306836e-08</v>
+        <v>3.545654617509532e-07</v>
       </c>
       <c r="BN18" t="n">
-        <v>3.383026501745179</v>
+        <v>0.4936777165081552</v>
       </c>
       <c r="BO18" t="n">
-        <v>2.917082413050055</v>
+        <v>0.2131455281680617</v>
       </c>
       <c r="BP18" t="n">
-        <v>3.088410882105039</v>
+        <v>0.08851582560988434</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.7714109969151749</v>
+        <v>0.04367279768357871</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.2432599490827429</v>
+        <v>0.05911939484865696</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.6699082635500011</v>
+        <v>0.0882051382869765</v>
       </c>
       <c r="BT18" t="n">
-        <v>0.5201860723852433</v>
+        <v>0.09012320864318868</v>
       </c>
       <c r="BU18" t="n">
         <v>10</v>
@@ -5633,221 +5631,223 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>AWNN</t>
+          <t>AKDE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-3.736</v>
+        <v>-3.274</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.6056e-06</v>
+        <v>-1.551e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.677</v>
+        <v>-1.16</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.10034</v>
+        <v>-0.03687</v>
       </c>
       <c r="G19" t="n">
-        <v>-73.67999999999999</v>
+        <v>-2.667557093260004e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.51</v>
+        <v>-4.070423221012661e-22</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0002565</v>
+        <v>-0.00022494</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.6645</v>
+        <v>-0.4784</v>
       </c>
       <c r="K19" t="n">
-        <v>14.18</v>
+        <v>14.36</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4723</v>
+        <v>0.7958000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>5.309</v>
+        <v>15.465</v>
       </c>
       <c r="N19" t="n">
-        <v>4.090999999999999</v>
+        <v>30.26</v>
       </c>
       <c r="O19" t="n">
-        <v>12.05</v>
+        <v>72.97999999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>9.812999999999999</v>
+        <v>25.17</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.681</v>
+        <v>2.023</v>
       </c>
       <c r="R19" t="n">
-        <v>1.479e-05</v>
+        <v>1.491e-05</v>
       </c>
       <c r="S19" t="n">
-        <v>2.314</v>
+        <v>2.58</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1662</v>
+        <v>0.2013</v>
       </c>
       <c r="U19" t="n">
-        <v>22.87</v>
+        <v>39.86</v>
       </c>
       <c r="V19" t="n">
-        <v>4.061999999999999</v>
+        <v>6.245</v>
       </c>
       <c r="W19" t="n">
-        <v>0.00010372</v>
+        <v>0.0003058</v>
       </c>
       <c r="X19" t="n">
-        <v>5.809</v>
+        <v>8.440000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.079000000000001e-10</v>
+        <v>8.15e-10</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.92</v>
+        <v>19.09</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2576</v>
+        <v>1.1888</v>
       </c>
       <c r="AB19" t="n">
-        <v>16907</v>
+        <v>39810</v>
       </c>
       <c r="AC19" t="n">
-        <v>2301.7</v>
+        <v>2356</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.024000000000001e-08</v>
+        <v>7.51839e-05</v>
       </c>
       <c r="AE19" t="n">
-        <v>24.29793808460236</v>
+        <v>70.48898408412933</v>
       </c>
       <c r="AF19" t="n">
-        <v>20.68696196079254</v>
+        <v>89.57268259525299</v>
       </c>
       <c r="AG19" t="n">
-        <v>22.98782889842987</v>
+        <v>66.83736712932587</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.74121840000153</v>
+        <v>62.83733732700348</v>
       </c>
       <c r="AI19" t="n">
-        <v>17.91090497970581</v>
+        <v>64.82391021251678</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12.18731575012207</v>
+        <v>66.18756134510041</v>
       </c>
       <c r="AK19" t="n">
-        <v>17.63520147800445</v>
+        <v>61.46244895458221</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.1902162512043127</v>
+        <v>0.2169587774465719</v>
       </c>
       <c r="AM19" t="n">
-        <v>4.843394585526882e-07</v>
+        <v>1.305075561882231e-07</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.28829190453813</v>
+        <v>0.08192137151629671</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.1081425109134547</v>
+        <v>0.05027831540535144</v>
       </c>
       <c r="AP19" t="n">
-        <v>44.89847312424877</v>
+        <v>8.268890069771528e-06</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4.151056090522828</v>
+        <v>1.156290167753931e-21</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.0001913956054296382</v>
+        <v>0.0004401177801957613</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.03187214039460376</v>
+        <v>0.03130921057239653</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.04216370213557839</v>
+        <v>0.06992058987801011</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.07214807304734089</v>
+        <v>0.04706213387049555</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.06838615844355264</v>
+        <v>20.02107181613079</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.1819920633190118</v>
+        <v>6.650346691046347</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.4034572812303402</v>
+        <v>11.48175364074089</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.07916929820187733</v>
+        <v>17.97523296093823</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.07752418977325719</v>
+        <v>0.07008724721532608</v>
       </c>
       <c r="BA19" t="n">
-        <v>5.173651192984185e-07</v>
+        <v>6.806043066438984e-07</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.1013464903739204</v>
+        <v>0.1220200347848207</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.01054935490392132</v>
+        <v>0.03849112451808425</v>
       </c>
       <c r="BD19" t="n">
-        <v>2.640307221181319</v>
+        <v>2.881049191604411</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.6474531300067641</v>
+        <v>0.5339423606012584</v>
       </c>
       <c r="BF19" t="n">
-        <v>7.084066628709812e-06</v>
+        <v>0.0002233098495115899</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.6888871863778243</v>
+        <v>0.7958084638348049</v>
       </c>
       <c r="BH19" t="n">
-        <v>1.630231408249897e-10</v>
+        <v>1.685196988155655e-10</v>
       </c>
       <c r="BI19" t="n">
-        <v>27.1168582250968</v>
+        <v>2.674343117685372</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.0531689132231733</v>
+        <v>2.829585474156163</v>
       </c>
       <c r="BK19" t="n">
-        <v>5751.680044416009</v>
+        <v>7155.953232565642</v>
       </c>
       <c r="BL19" t="n">
-        <v>3743.947116494985</v>
+        <v>943.2237863365783</v>
       </c>
       <c r="BM19" t="n">
-        <v>5.255122791672479e-08</v>
+        <v>0.0002158982100020748</v>
       </c>
       <c r="BN19" t="n">
-        <v>4.054897473336509</v>
+        <v>14.53768929933093</v>
       </c>
       <c r="BO19" t="n">
-        <v>4.185901430237069</v>
+        <v>10.23645011321653</v>
       </c>
       <c r="BP19" t="n">
-        <v>2.061848930658871</v>
+        <v>11.79329283112042</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0.3668521592979824</v>
+        <v>3.412020182051087</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.2924248579493693</v>
+        <v>2.375140607392452</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.7765015316108811</v>
+        <v>3.846035765756636</v>
       </c>
       <c r="BT19" t="n">
-        <v>2.416955658745158</v>
+        <v>4.364564785570344</v>
       </c>
       <c r="BU19" t="n">
         <v>10</v>
@@ -5959,218 +5959,218 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>KDE</t>
+          <t>AKNN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-4.677</v>
+        <v>-3.609</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01282</v>
+        <v>-8.988e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.788</v>
+        <v>-1.251</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02402</v>
+        <v>-0.03772</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02735</v>
+        <v>-63.01000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01463</v>
+        <v>-8.193999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01317</v>
+        <v>-0.0002392</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6033999999999999</v>
+        <v>-0.5356</v>
       </c>
       <c r="K20" t="n">
-        <v>15.42</v>
+        <v>14.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.825</v>
+        <v>0.7626999999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>7.195</v>
+        <v>5.257</v>
       </c>
       <c r="N20" t="n">
-        <v>58.47000000000001</v>
+        <v>3.669</v>
       </c>
       <c r="O20" t="n">
-        <v>632696761</v>
+        <v>11.24</v>
       </c>
       <c r="P20" t="n">
-        <v>11.3</v>
+        <v>9.842000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.103</v>
+        <v>1.801</v>
       </c>
       <c r="R20" t="n">
-        <v>1.485e-05</v>
+        <v>1.469e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>2.487</v>
+        <v>2.557</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1884</v>
+        <v>0.1705</v>
       </c>
       <c r="U20" t="n">
-        <v>39.86</v>
+        <v>26.2</v>
       </c>
       <c r="V20" t="n">
-        <v>6.245</v>
+        <v>4.152</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0001374</v>
+        <v>0.000117</v>
       </c>
       <c r="X20" t="n">
-        <v>8.390000000000001</v>
+        <v>6.414</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.140000000000001e-10</v>
+        <v>8.157e-10</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.8</v>
+        <v>23.22</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.2898</v>
+        <v>0.2845</v>
       </c>
       <c r="AB20" t="n">
-        <v>39810</v>
+        <v>24750</v>
       </c>
       <c r="AC20" t="n">
-        <v>2356</v>
+        <v>1444.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.241e-07</v>
+        <v>1.1295e-07</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.2893523693084717</v>
+        <v>11.89475903511047</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.4321449041366577</v>
+        <v>12.86331295967102</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.3711547851562499</v>
+        <v>11.37341811656952</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.2461713552474975</v>
+        <v>8.924426078796387</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.234847354888916</v>
+        <v>8.920165252685546</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.2386005163192749</v>
+        <v>9.049192857742309</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.2355779886245727</v>
+        <v>8.251297664642333</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.1655328097722958</v>
+        <v>0.1344494948546356</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.0001549193338482972</v>
+        <v>1.135027831278942e-06</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.07020604595680408</v>
+        <v>0.1587765725792065</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.001546178083749304</v>
+        <v>0.1115242753843306</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.01531493461371031</v>
+        <v>10.87325464921459</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.000156702123647242</v>
+        <v>1.82465339174321</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.0001946506842754187</v>
+        <v>8.166707482891199e-05</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.03026989703759609</v>
+        <v>0.03053304221113033</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.04216370213557826</v>
+        <v>0.6289320754704402</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.02718251071716685</v>
+        <v>0.2405424656433408</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.08708233651742103</v>
+        <v>0.2450872860386231</v>
       </c>
       <c r="AW20" t="n">
-        <v>44.57617824204613</v>
+        <v>0.2023445905709697</v>
       </c>
       <c r="AX20" t="n">
-        <v>1984308288.383463</v>
+        <v>0.3806427312965379</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.04714045207910303</v>
+        <v>0.1558346702259946</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.08577101297446979</v>
+        <v>0.08238797107453118</v>
       </c>
       <c r="BA20" t="n">
-        <v>5.441609239104834e-07</v>
+        <v>6.118278625016464e-07</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.08165646194746486</v>
+        <v>0.1026374417278823</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.01178699848703365</v>
+        <v>0.01684735389707635</v>
       </c>
       <c r="BD20" t="n">
-        <v>2.881049191604411</v>
+        <v>2.870927066684596</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.5339423606012584</v>
+        <v>0.634311525286362</v>
       </c>
       <c r="BF20" t="n">
-        <v>4.247875285886401e-06</v>
+        <v>1.76572301841987e-05</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.8027314481056401</v>
+        <v>0.657304258991899</v>
       </c>
       <c r="BH20" t="n">
-        <v>1.65279561148175e-10</v>
+        <v>1.850483720544442e-10</v>
       </c>
       <c r="BI20" t="n">
-        <v>1.969207398365591</v>
+        <v>12.61505273693121</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.05305720183600588</v>
+        <v>0.06285830626628962</v>
       </c>
       <c r="BK20" t="n">
-        <v>7155.953232565642</v>
+        <v>5854.580353117643</v>
       </c>
       <c r="BL20" t="n">
-        <v>943.2237863365783</v>
+        <v>1152.314718777432</v>
       </c>
       <c r="BM20" t="n">
-        <v>9.757618106439246e-09</v>
+        <v>6.177986457306836e-08</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.1628458002553422</v>
+        <v>3.383026501745179</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.2366472369624132</v>
+        <v>2.917082413050055</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.3363540829685881</v>
+        <v>3.088410882105039</v>
       </c>
       <c r="BQ20" t="n">
-        <v>0.01350439171725771</v>
+        <v>0.7714109969151749</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.00932148856337698</v>
+        <v>0.2432599490827429</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.01057320926925973</v>
+        <v>0.6699082635500011</v>
       </c>
       <c r="BT20" t="n">
-        <v>0.02119124518553256</v>
+        <v>0.5201860723852433</v>
       </c>
       <c r="BU20" t="n">
         <v>10</v>
@@ -6282,218 +6282,218 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>AWNN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-3.599</v>
+        <v>-3.736</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.4863e-06</v>
+        <v>-1.6056e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.598</v>
+        <v>-1.677</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.07814</v>
+        <v>-0.10034</v>
       </c>
       <c r="G21" t="n">
-        <v>-62.2</v>
+        <v>-73.67999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.062999999999999</v>
+        <v>-8.51</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0002496</v>
+        <v>-0.0002565</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.6189</v>
+        <v>-0.6645</v>
       </c>
       <c r="K21" t="n">
-        <v>14.19</v>
+        <v>14.18</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4775</v>
+        <v>0.4723</v>
       </c>
       <c r="M21" t="n">
-        <v>5.18</v>
+        <v>5.309</v>
       </c>
       <c r="N21" t="n">
-        <v>3.693</v>
+        <v>4.090999999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>11.39</v>
+        <v>12.05</v>
       </c>
       <c r="P21" t="n">
-        <v>9.812000000000001</v>
+        <v>9.812999999999999</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.771</v>
+        <v>1.681</v>
       </c>
       <c r="R21" t="n">
-        <v>1.484e-05</v>
+        <v>1.479e-05</v>
       </c>
       <c r="S21" t="n">
-        <v>2.323</v>
+        <v>2.314</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1679</v>
+        <v>0.1662</v>
       </c>
       <c r="U21" t="n">
-        <v>26.11</v>
+        <v>22.87</v>
       </c>
       <c r="V21" t="n">
-        <v>4.135</v>
+        <v>4.061999999999999</v>
       </c>
       <c r="W21" t="n">
-        <v>0.00010859</v>
+        <v>0.00010372</v>
       </c>
       <c r="X21" t="n">
-        <v>6.989</v>
+        <v>5.809</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.278999999999999e-10</v>
+        <v>8.079000000000001e-10</v>
       </c>
       <c r="Z21" t="n">
-        <v>27.03</v>
+        <v>23.92</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2813</v>
+        <v>0.2576</v>
       </c>
       <c r="AB21" t="n">
-        <v>24540</v>
+        <v>16907</v>
       </c>
       <c r="AC21" t="n">
-        <v>1445.2</v>
+        <v>2301.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.565000000000001e-08</v>
+        <v>9.024000000000001e-08</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.11349515914917</v>
+        <v>24.29793808460236</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.657502365112305</v>
+        <v>20.68696196079254</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.935391592979431</v>
+        <v>22.98782889842987</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.813255667686462</v>
+        <v>18.74121840000153</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.951434206962586</v>
+        <v>17.91090497970581</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.97992696762085</v>
+        <v>12.18731575012207</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.811103677749634</v>
+        <v>17.63520147800445</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.1494768655455865</v>
+        <v>0.1902162512043127</v>
       </c>
       <c r="AM21" t="n">
-        <v>8.280708571399216e-07</v>
+        <v>4.843394585526882e-07</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.3226900817950388</v>
+        <v>0.28829190453813</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.02013488956457863</v>
+        <v>0.1081425109134547</v>
       </c>
       <c r="AP21" t="n">
-        <v>11.04204087416211</v>
+        <v>44.89847312424877</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.868285310117275</v>
+        <v>4.151056090522828</v>
       </c>
       <c r="AR21" t="n">
-        <v>6.921817359303518e-05</v>
+        <v>0.0001913956054296382</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.05454753278869112</v>
+        <v>0.03187214039460376</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.0875595035770914</v>
+        <v>0.04216370213557839</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.08425919006916165</v>
+        <v>0.07214807304734089</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.06306962642808185</v>
+        <v>0.06838615844355264</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.2557798532592694</v>
+        <v>0.1819920633190118</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.3784471194529324</v>
+        <v>0.4034572812303402</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.1048596946188362</v>
+        <v>0.07916929820187733</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.08252272414311104</v>
+        <v>0.07752418977325719</v>
       </c>
       <c r="BA21" t="n">
-        <v>5.295700562196138e-07</v>
+        <v>5.173651192984185e-07</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.1112604551891144</v>
+        <v>0.1013464903739204</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.01230582517888717</v>
+        <v>0.01054935490392132</v>
       </c>
       <c r="BD21" t="n">
-        <v>3.010518596890279</v>
+        <v>2.640307221181319</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.6448987862017143</v>
+        <v>0.6474531300067641</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.779821776346035e-05</v>
+        <v>7.084066628709812e-06</v>
       </c>
       <c r="BG21" t="n">
-        <v>1.408256999903703</v>
+        <v>0.6888871863778243</v>
       </c>
       <c r="BH21" t="n">
-        <v>1.901902264108811e-10</v>
+        <v>1.630231408249897e-10</v>
       </c>
       <c r="BI21" t="n">
-        <v>33.85459266398644</v>
+        <v>27.1168582250968</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.05882374803880942</v>
+        <v>0.0531689132231733</v>
       </c>
       <c r="BK21" t="n">
-        <v>5917.807401770055</v>
+        <v>5751.680044416009</v>
       </c>
       <c r="BL21" t="n">
-        <v>1152.118126659666</v>
+        <v>3743.947116494985</v>
       </c>
       <c r="BM21" t="n">
-        <v>6.249789774242187e-08</v>
+        <v>5.255122791672479e-08</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.5805010376458085</v>
+        <v>4.054897473336509</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.7089488474050206</v>
+        <v>4.185901430237069</v>
       </c>
       <c r="BP21" t="n">
-        <v>0.2523012351643001</v>
+        <v>2.061848930658871</v>
       </c>
       <c r="BQ21" t="n">
-        <v>0.2385258829671502</v>
+        <v>0.3668521592979824</v>
       </c>
       <c r="BR21" t="n">
-        <v>0.07289992999650141</v>
+        <v>0.2924248579493693</v>
       </c>
       <c r="BS21" t="n">
-        <v>0.1663109707952947</v>
+        <v>0.7765015316108811</v>
       </c>
       <c r="BT21" t="n">
-        <v>0.0688960381709177</v>
+        <v>2.416955658745158</v>
       </c>
       <c r="BU21" t="n">
         <v>10</v>
@@ -6605,322 +6605,1291 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
+          <t>BKNN</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-4.569999999999999e-07</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.00491</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1240</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-127</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-4.65e-05</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.187</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="O22" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="P22" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4.541</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.62e-05</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="U22" t="n">
+        <v>846</v>
+      </c>
+      <c r="V22" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.000191</v>
+      </c>
+      <c r="X22" t="n">
+        <v>102.26</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.99e-10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8110000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>59000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1.67e-07</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2.540647697448731</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2.835463547706604</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2.56021900177002</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>2.586547541618347</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.050834465026855</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>3.153841161727905</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.635908699035645</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>18.56256986518839</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.02213594362117839</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.09170605214488281</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>18.1514737693665</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0.06985474775279951</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0.08914924661299466</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0.0769428132203782</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0.1393357080003089</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0.07265773631532209</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0.1305745821388662</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0.1484232080465675</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>10</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>10</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>KDE</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.677</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01282</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.788</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.02402</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02735</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01463</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01317</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6033999999999999</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7.195</v>
+      </c>
+      <c r="N23" t="n">
+        <v>58.47000000000001</v>
+      </c>
+      <c r="O23" t="n">
+        <v>632696761</v>
+      </c>
+      <c r="P23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.103</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.485e-05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.487</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="U23" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="V23" t="n">
+        <v>6.245</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.0001374</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.140000000000001e-10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.2898</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>39810</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2356</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1.241e-07</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.2893523693084717</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.4321449041366577</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.3711547851562499</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.2461713552474975</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.234847354888916</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.2386005163192749</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.2355779886245727</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.1655328097722958</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.0001549193338482972</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.07020604595680408</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.001546178083749304</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.01531493461371031</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.000156702123647242</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.0001946506842754187</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.03026989703759609</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.04216370213557826</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.02718251071716685</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0.08708233651742103</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>44.57617824204613</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1984308288.383463</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.04714045207910303</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.08577101297446979</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>5.441609239104834e-07</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0.08165646194746486</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0.01178699848703365</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.881049191604411</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0.5339423606012584</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>4.247875285886401e-06</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0.8027314481056401</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>1.65279561148175e-10</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.969207398365591</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0.05305720183600588</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>7155.953232565642</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>943.2237863365783</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>9.757618106439246e-09</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0.1628458002553422</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0.2366472369624132</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0.3363540829685881</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>0.01350439171725771</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0.00932148856337698</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0.01057320926925973</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0.02119124518553256</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>10</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>10</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>16.4505</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.35185e-06</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.11757</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-90.59999999999999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-10.2815</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0005052</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.8177</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13.845</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.30325</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5.034999999999999</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.5065</v>
+      </c>
+      <c r="O24" t="n">
+        <v>11.045</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9.701000000000001</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.517e-05</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.5465</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.16695</v>
+      </c>
+      <c r="U24" t="n">
+        <v>38.705</v>
+      </c>
+      <c r="V24" t="n">
+        <v>5.2075</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.000161795</v>
+      </c>
+      <c r="X24" t="n">
+        <v>145.5945</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.06895e-09</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>43.715</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.30015</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>236770</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2092.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.00825e-07</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.758643567562103</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>2.012511301040649</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.658147442340851</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.596728181838989</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.695526075363159</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.687373840808868</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.600549840927124</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>21.17092108853184</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>4.996447267019363e-06</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.632602952502009</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.04276202324000757</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>30.11254328611077</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2.614224802076034</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.0007758723850574506</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.2075306191739832</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.3590557792761156</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.1879470460136662</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0.1549702857766104</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0.2600055667420261</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0.4394673809822167</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0.134825423184361</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>1.532115496539619</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>4.974672694866748e-07</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0.2417540072056719</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0.008525349197972388</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>13.08725675891186</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>1.186506925479378</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>5.594472342363817e-05</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>143.219217560648</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>2.79816946742349e-10</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>28.91274122706385</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0.04486737766960945</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>217781.4744912407</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1034.380587598201</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.148548466560132e-07</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.446377479955679</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>1.756898309632542</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.321953127388226</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>1.25893342521438</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>1.289646213116052</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>1.331163365007999</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>1.243058096004433</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>20</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>20</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>20</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>20</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>20</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>20</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>20</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>20</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
           <t>WKNN</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>-3.665999999999999</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>-1.4452e-06</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E25" t="n">
         <v>-1.751</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F25" t="n">
         <v>-0.08423</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G25" t="n">
         <v>-67.09</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>-9.041</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>-0.00022913</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J25" t="n">
         <v>-0.6399</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K25" t="n">
         <v>14.06</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>0.4564</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M25" t="n">
         <v>5.147</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N25" t="n">
         <v>3.591</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O25" t="n">
         <v>11.18</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P25" t="n">
         <v>9.798</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q25" t="n">
         <v>1.717</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R25" t="n">
         <v>1.466e-05</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S25" t="n">
         <v>2.309</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T25" t="n">
         <v>0.1676</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U25" t="n">
         <v>26.26</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V25" t="n">
         <v>4.199</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W25" t="n">
         <v>0.00010841</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X25" t="n">
         <v>6.441</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y25" t="n">
         <v>8.008999999999999e-10</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z25" t="n">
         <v>35.06</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA25" t="n">
         <v>0.282</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB25" t="n">
         <v>24390</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC25" t="n">
         <v>1982.9</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD25" t="n">
         <v>1.0198e-07</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE25" t="n">
         <v>4.26148555278778</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF25" t="n">
         <v>4.761697554588318</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG25" t="n">
         <v>4.038614845275879</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH25" t="n">
         <v>3.626810622215271</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI25" t="n">
         <v>3.749587106704712</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ25" t="n">
         <v>3.766650390625</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK25" t="n">
         <v>3.576940608024597</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL25" t="n">
         <v>0.1841014213235014</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM25" t="n">
         <v>1.117081196690733e-06</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN25" t="n">
         <v>0.3150819999090184</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AO25" t="n">
         <v>0.02624855763233054</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AP25" t="n">
         <v>11.36245767624437</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AQ25" t="n">
         <v>2.293117480151808</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AR25" t="n">
         <v>9.794472420707507e-05</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AS25" t="n">
         <v>0.05254722743505229</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AT25" t="n">
         <v>0.0966091783079298</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AU25" t="n">
         <v>0.0656543135588888</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AV25" t="n">
         <v>0.1366300764025907</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AW25" t="n">
         <v>0.2471818943387419</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AX25" t="n">
         <v>0.4049691346263317</v>
       </c>
-      <c r="AY22" t="n">
+      <c r="AY25" t="n">
         <v>0.1141928193889619</v>
       </c>
-      <c r="AZ22" t="n">
+      <c r="AZ25" t="n">
         <v>0.07454305243727724</v>
       </c>
-      <c r="BA22" t="n">
+      <c r="BA25" t="n">
         <v>5.561774297230455e-07</v>
       </c>
-      <c r="BB22" t="n">
+      <c r="BB25" t="n">
         <v>0.130677720620872</v>
       </c>
-      <c r="BC22" t="n">
+      <c r="BC25" t="n">
         <v>0.01468332387438212</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BD25" t="n">
         <v>2.822213473302275</v>
       </c>
-      <c r="BE22" t="n">
+      <c r="BE25" t="n">
         <v>0.6999912697868294</v>
       </c>
-      <c r="BF22" t="n">
+      <c r="BF25" t="n">
         <v>2.445051465034359e-05</v>
       </c>
-      <c r="BG22" t="n">
+      <c r="BG25" t="n">
         <v>0.6904177479371939</v>
       </c>
-      <c r="BH22" t="n">
+      <c r="BH25" t="n">
         <v>1.663459915023169e-10</v>
       </c>
-      <c r="BI22" t="n">
+      <c r="BI25" t="n">
         <v>59.18310945231286</v>
       </c>
-      <c r="BJ22" t="n">
+      <c r="BJ25" t="n">
         <v>0.06078925343622286</v>
       </c>
-      <c r="BK22" t="n">
+      <c r="BK25" t="n">
         <v>5691.602000608733</v>
       </c>
-      <c r="BL22" t="n">
+      <c r="BL25" t="n">
         <v>2866.373878458829</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BM25" t="n">
         <v>8.878271603564889e-08</v>
       </c>
-      <c r="BN22" t="n">
+      <c r="BN25" t="n">
         <v>0.9709811549416409</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BO25" t="n">
         <v>0.9359420873713133</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BP25" t="n">
         <v>0.6800884009360346</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BQ25" t="n">
         <v>0.1978864688011005</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BR25" t="n">
         <v>0.06621942402498224</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BS25" t="n">
         <v>0.192338711724962</v>
       </c>
-      <c r="BT22" t="n">
+      <c r="BT25" t="n">
         <v>0.05851462828121153</v>
       </c>
-      <c r="BU22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC22" t="n">
+      <c r="BU25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>10</v>
+      </c>
+      <c r="DC25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6944,9 +7913,9 @@
     <mergeCell ref="CI2:CO2"/>
     <mergeCell ref="CP2:CV2"/>
     <mergeCell ref="CW2:DC2"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sorted_result/simulation_summary.xlsx
+++ b/sorted_result/simulation_summary.xlsx
@@ -1031,88 +1031,88 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.447</v>
+        <v>-1.44</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.05965</v>
+        <v>-0.0593</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.311</v>
+        <v>-1.321</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.186</v>
+        <v>-0.1785</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.174</v>
+        <v>-2.769</v>
       </c>
       <c r="H7" t="n">
-        <v>3.0806</v>
+        <v>2.50311</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07636</v>
+        <v>-0.07513</v>
       </c>
       <c r="J7" t="n">
-        <v>0.11565</v>
+        <v>0.13235</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01323</v>
+        <v>0.01341</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2202</v>
+        <v>0.2065</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04858</v>
+        <v>0.05420000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3477</v>
+        <v>0.4562</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6354</v>
+        <v>0.7287</v>
       </c>
       <c r="P7" t="n">
-        <v>0.008538</v>
+        <v>0.009146999999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03683295625749672</v>
+        <v>0.03681787005729088</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001859659467035117</v>
+        <v>0.002226606785621965</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03604010112206806</v>
+        <v>0.03212821536005731</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004082482904638633</v>
+        <v>0.004552166761249218</v>
       </c>
       <c r="U7" t="n">
-        <v>0.486602735526859</v>
+        <v>0.5974287498196844</v>
       </c>
       <c r="V7" t="n">
-        <v>14.81946398940708</v>
+        <v>9.966330581228647</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002006212573205763</v>
+        <v>0.002485088864943598</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0219747961689447</v>
+        <v>0.03003336108026835</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001360596274514311</v>
+        <v>0.0009837004964249366</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02317949285227977</v>
+        <v>0.02070560847263905</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.002081559244626221</v>
+        <v>0.002887521043694363</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09611572885502838</v>
+        <v>0.1182800819148253</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.2323829215373243</v>
+        <v>0.1726982274888129</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001841326816305146</v>
+        <v>0.002175418478260115</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1165,88 +1165,88 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.116</v>
+        <v>-1.391</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05920000000000001</v>
+        <v>-0.05928</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.1</v>
+        <v>-1.294</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.172</v>
+        <v>-0.1833</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.58</v>
+        <v>-3.092</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.2</v>
+        <v>-0.5282</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0725</v>
+        <v>-0.07561</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5707</v>
+        <v>0.2323</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0148</v>
+        <v>0.01407</v>
       </c>
       <c r="L8" t="n">
-        <v>0.505</v>
+        <v>0.253</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0502</v>
+        <v>0.05203</v>
       </c>
       <c r="N8" t="n">
-        <v>0.429</v>
+        <v>0.4162</v>
       </c>
       <c r="O8" t="n">
-        <v>0.205</v>
+        <v>0.3778</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0134</v>
+        <v>0.01208</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01264911064067351</v>
+        <v>0.04357624225296264</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.002075143903979245</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.04351245032554864</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.004967673276069776</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.9196835204448202</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.897896777549769</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.002661432362886983</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002213594362117876</v>
+        <v>0.02435866261608885</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.0011860766323378</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.01544164642920065</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.002321900562518175</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.05979929393860396</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.3846377227701123</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.001292542713672035</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1433,130 +1433,130 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.486</v>
+        <v>-1.439</v>
       </c>
       <c r="D10" t="n">
-        <v>0.47568</v>
+        <v>-0.05864</v>
       </c>
       <c r="E10" t="n">
-        <v>4.853499999999999</v>
+        <v>-1.293</v>
       </c>
       <c r="F10" t="n">
-        <v>9.258649999999999</v>
+        <v>-0.1827</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.9635</v>
+        <v>-2.997</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3968</v>
+        <v>10.5336</v>
       </c>
       <c r="I10" t="n">
-        <v>0.264115</v>
+        <v>-0.07577</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8985</v>
+        <v>0.148</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04492</v>
+        <v>0.01494</v>
       </c>
       <c r="L10" t="n">
-        <v>1.04505</v>
+        <v>0.2501</v>
       </c>
       <c r="M10" t="n">
-        <v>0.156255</v>
+        <v>0.05351</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9319</v>
+        <v>0.4438</v>
       </c>
       <c r="O10" t="n">
-        <v>1.30725</v>
+        <v>0.7945</v>
       </c>
       <c r="P10" t="n">
-        <v>0.046095</v>
+        <v>0.01029</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.95854608540167</v>
+        <v>0.05506561742341781</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5482021799530381</v>
+        <v>0.001817324040083845</v>
       </c>
       <c r="S10" t="n">
-        <v>6.306236908598377</v>
+        <v>0.0402906109823782</v>
       </c>
       <c r="T10" t="n">
-        <v>9.686621763382842</v>
+        <v>0.006549809157525126</v>
       </c>
       <c r="U10" t="n">
-        <v>2.116788220021326</v>
+        <v>0.9305082243352585</v>
       </c>
       <c r="V10" t="n">
-        <v>26.31809359117192</v>
+        <v>36.26453527805553</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3487182987289612</v>
+        <v>0.002317110269279389</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7717246918428877</v>
+        <v>0.04487761134463376</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03078474673566354</v>
+        <v>0.001834968967342802</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.8158654091144407</v>
+        <v>0.03014944259665324</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1054348413151834</v>
+        <v>0.003035145978550473</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.529602731361798</v>
+        <v>0.1354718502945251</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5801136798757185</v>
+        <v>0.3552549163003316</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.03678280426331963</v>
+        <v>0.002719448473496051</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1971,88 +1971,88 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.443</v>
+        <v>-2.36</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0005380000000000001</v>
+        <v>-0.0004736</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.786</v>
+        <v>-1.468</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.11364</v>
+        <v>-0.11242</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.053</v>
+        <v>-11.44</v>
       </c>
       <c r="H14" t="n">
-        <v>-9.032999999999999</v>
+        <v>-6.484</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.003354</v>
+        <v>-0.003019</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5766</v>
+        <v>0.6607000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0006263</v>
+        <v>0.000629</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8779</v>
+        <v>1.0111</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1221</v>
+        <v>0.124</v>
       </c>
       <c r="N14" t="n">
-        <v>5.326</v>
+        <v>4.87</v>
       </c>
       <c r="O14" t="n">
-        <v>1.742</v>
+        <v>1.556</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0009511000000000001</v>
+        <v>0.001349</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08895067297228411</v>
+        <v>0.0758653778449403</v>
       </c>
       <c r="R14" t="n">
-        <v>3.06883980972904e-05</v>
+        <v>6.64366030304246e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03134042472944845</v>
+        <v>0.06613118276073204</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01592148792600044</v>
+        <v>0.01034019127267748</v>
       </c>
       <c r="U14" t="n">
-        <v>25.51548290308803</v>
+        <v>15.88937380767411</v>
       </c>
       <c r="V14" t="n">
-        <v>0.538620666352696</v>
+        <v>1.149107866515972</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0002904861824979326</v>
+        <v>0.0003528125092264538</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04422467888207014</v>
+        <v>0.04948411641908725</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.031773015520156e-05</v>
+        <v>1.236482466066094e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.04492079449183616</v>
+        <v>0.06181594544380206</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.004653553003411</v>
+        <v>0.007803133273813084</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.81381856252983</v>
+        <v>1.679364959342271</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2130101719010933</v>
+        <v>0.1478888471491718</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.507056079854886e-05</v>
+        <v>0.0001467764740458543</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2105,88 +2105,88 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2372</v>
+        <v>-1.961</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0004200000000000001</v>
+        <v>-0.0004826</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0775</v>
+        <v>-1.672</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.00685</v>
+        <v>-0.10018</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.48</v>
+        <v>10.3784</v>
       </c>
       <c r="H15" t="n">
-        <v>-368</v>
+        <v>-329.07</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.00296</v>
+        <v>-0.003033</v>
       </c>
       <c r="J15" t="n">
-        <v>2.516</v>
+        <v>0.9953</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000778</v>
+        <v>0.0006847</v>
       </c>
       <c r="L15" t="n">
-        <v>2.06</v>
+        <v>0.9109</v>
       </c>
       <c r="M15" t="n">
-        <v>0.203</v>
+        <v>0.1347</v>
       </c>
       <c r="N15" t="n">
-        <v>9.4</v>
+        <v>36.541</v>
       </c>
       <c r="O15" t="n">
-        <v>184</v>
+        <v>161.74</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00202</v>
+        <v>0.001162</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.610231784557739</v>
+        <v>0.1585664949897465</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2.212188458919758e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.0818942407417436</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.006852704251283253</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>216.5234797430626</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>116.0539343006805</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>0.0003921465145693493</v>
       </c>
       <c r="X15" t="n">
-        <v>0.05059644256269417</v>
+        <v>0.02435410072702794</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1.265833059030032e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.04516746616758571</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>0.005121848624601598</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>26.0063904326097</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>58.02421333661778</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>4.70932880331983e-05</v>
       </c>
       <c r="AE15" t="n">
         <v>10</v>
@@ -2373,130 +2373,130 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12.23</v>
+        <v>-2.38</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001985349999999999</v>
+        <v>-0.0005093000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>4.8155</v>
+        <v>-1.669</v>
       </c>
       <c r="F17" t="n">
-        <v>2.447475</v>
+        <v>-0.10505</v>
       </c>
       <c r="G17" t="n">
-        <v>-22.1255</v>
+        <v>-3.851</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.079499999999999</v>
+        <v>-8.309000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.000737</v>
+        <v>-0.003243999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>1.8027</v>
+        <v>0.6424000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00092245</v>
+        <v>0.0006349</v>
       </c>
       <c r="L17" t="n">
-        <v>1.5731</v>
+        <v>0.9262</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1595</v>
+        <v>0.128</v>
       </c>
       <c r="N17" t="n">
-        <v>9.92</v>
+        <v>6.840000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>2.773</v>
+        <v>2.246</v>
       </c>
       <c r="P17" t="n">
-        <v>0.00281115</v>
+        <v>0.0010023</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.51549140969149</v>
+        <v>0.1215638835254032</v>
       </c>
       <c r="R17" t="n">
-        <v>0.002559749170997239</v>
+        <v>5.620211542084314e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>6.65324809872275</v>
+        <v>0.09048634028281716</v>
       </c>
       <c r="T17" t="n">
-        <v>2.618866752679386</v>
+        <v>0.0186213288701126</v>
       </c>
       <c r="U17" t="n">
-        <v>33.61997299147292</v>
+        <v>40.547094826743</v>
       </c>
       <c r="V17" t="n">
-        <v>1.161457682125535</v>
+        <v>1.236360698897283</v>
       </c>
       <c r="W17" t="n">
-        <v>0.002581931345656621</v>
+        <v>0.0003266054364383898</v>
       </c>
       <c r="X17" t="n">
-        <v>1.191410579280314</v>
+        <v>0.0563642912962927</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.000295334328836784</v>
+        <v>1.979028942576525e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.6641602454068954</v>
+        <v>0.03570807565056769</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03253257476826316</v>
+        <v>0.005416025603090643</v>
       </c>
       <c r="AB17" t="n">
-        <v>3.273078383611238</v>
+        <v>1.239166386460403</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5885673954165047</v>
+        <v>0.337842829993146</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.001856532655956145</v>
+        <v>7.362827053667781e-05</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AM17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2911,88 +2911,88 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-3.736</v>
+        <v>-3.349</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.6056e-06</v>
+        <v>-1.396e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.677</v>
+        <v>-1.587</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.10034</v>
+        <v>-0.05554</v>
       </c>
       <c r="G21" t="n">
-        <v>-73.67999999999999</v>
+        <v>-41.07</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.51</v>
+        <v>-5.654</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0002565</v>
+        <v>-0.000245</v>
       </c>
       <c r="J21" t="n">
-        <v>1.681</v>
+        <v>1.833</v>
       </c>
       <c r="K21" t="n">
-        <v>1.479e-05</v>
+        <v>1.51e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>2.314</v>
+        <v>2.316</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1662</v>
+        <v>0.1716</v>
       </c>
       <c r="N21" t="n">
-        <v>22.87</v>
+        <v>24.72</v>
       </c>
       <c r="O21" t="n">
-        <v>4.061999999999999</v>
+        <v>4.040999999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>0.00010372</v>
+        <v>9.857e-05</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1902162512043127</v>
+        <v>0.5826081206284566</v>
       </c>
       <c r="R21" t="n">
-        <v>4.843394585526882e-07</v>
+        <v>1.415940990609739e-07</v>
       </c>
       <c r="S21" t="n">
-        <v>0.28829190453813</v>
+        <v>0.1332541431500975</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1081425109134547</v>
+        <v>0.008823478779811158</v>
       </c>
       <c r="U21" t="n">
-        <v>44.89847312424877</v>
+        <v>5.438147151782897</v>
       </c>
       <c r="V21" t="n">
-        <v>4.151056090522828</v>
+        <v>1.160959373391966</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0001913956054296382</v>
+        <v>3.447382259692773e-05</v>
       </c>
       <c r="X21" t="n">
-        <v>0.07752418977325719</v>
+        <v>0.09416887903005851</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.173651192984185e-07</v>
+        <v>5.41602560309064e-07</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.1013464903739204</v>
+        <v>0.07791733511299714</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01054935490392132</v>
+        <v>0.01325979721648194</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.640307221181319</v>
+        <v>2.63303795811775</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.6474531300067641</v>
+        <v>0.5902626534010094</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.084066628709812e-06</v>
+        <v>3.969900642473451e-06</v>
       </c>
       <c r="AE21" t="n">
         <v>10</v>
@@ -3045,88 +3045,88 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.470000000000001</v>
+        <v>-1.157</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.569999999999999e-07</v>
+        <v>-1.733e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>3.8</v>
+        <v>-0.4273</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.00491</v>
+        <v>-0.05506</v>
       </c>
       <c r="G22" t="n">
-        <v>-1240</v>
+        <v>-1428.23</v>
       </c>
       <c r="H22" t="n">
-        <v>-127</v>
+        <v>-143.3</v>
       </c>
       <c r="I22" t="n">
-        <v>-4.65e-05</v>
+        <v>-4.572e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>4.541</v>
+        <v>3.669</v>
       </c>
       <c r="K22" t="n">
-        <v>1.62e-05</v>
+        <v>1.402e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>3.13</v>
+        <v>2.856</v>
       </c>
       <c r="M22" t="n">
-        <v>0.194</v>
+        <v>0.1689</v>
       </c>
       <c r="N22" t="n">
-        <v>846</v>
+        <v>682.5899999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>57.4</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>0.000191</v>
+        <v>0.0001555</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.56256986518839</v>
+        <v>0.08124722217473718</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2.856201829158594e-07</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.07842058969995627</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.008532838527320983</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>734.2959561527098</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>19.02074890452237</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>0.0001770666277610399</v>
       </c>
       <c r="X22" t="n">
-        <v>0.09170605214488281</v>
+        <v>0.07709301740970682</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>5.116422361159967e-07</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>0.3076867093507795</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>0.01259144330267362</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>355.2156104239916</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>9.48826760911718</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>2.929637823652913e-05</v>
       </c>
       <c r="AE22" t="n">
         <v>10</v>
@@ -3313,130 +3313,130 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>16.4505</v>
+        <v>-3.599</v>
       </c>
       <c r="D24" t="n">
-        <v>3.35185e-06</v>
+        <v>-1.4863e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>1.936</v>
+        <v>-1.598</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.11757</v>
+        <v>-0.07814</v>
       </c>
       <c r="G24" t="n">
-        <v>-90.59999999999999</v>
+        <v>-62.2</v>
       </c>
       <c r="H24" t="n">
-        <v>-10.2815</v>
+        <v>-8.062999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0005052</v>
+        <v>-0.0002496</v>
       </c>
       <c r="J24" t="n">
-        <v>3.261</v>
+        <v>1.771</v>
       </c>
       <c r="K24" t="n">
-        <v>1.517e-05</v>
+        <v>1.484e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>2.5465</v>
+        <v>2.323</v>
       </c>
       <c r="M24" t="n">
-        <v>0.16695</v>
+        <v>0.1679</v>
       </c>
       <c r="N24" t="n">
-        <v>38.705</v>
+        <v>26.11</v>
       </c>
       <c r="O24" t="n">
-        <v>5.2075</v>
+        <v>4.135</v>
       </c>
       <c r="P24" t="n">
-        <v>0.000161795</v>
+        <v>0.00010859</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.17092108853184</v>
+        <v>0.1494768655455865</v>
       </c>
       <c r="R24" t="n">
-        <v>4.996447267019363e-06</v>
+        <v>8.280708571399216e-07</v>
       </c>
       <c r="S24" t="n">
-        <v>3.632602952502009</v>
+        <v>0.3226900817950388</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04276202324000757</v>
+        <v>0.02013488956457863</v>
       </c>
       <c r="U24" t="n">
-        <v>30.11254328611077</v>
+        <v>11.04204087416211</v>
       </c>
       <c r="V24" t="n">
-        <v>2.614224802076034</v>
+        <v>1.868285310117275</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0007758723850574506</v>
+        <v>6.921817359303518e-05</v>
       </c>
       <c r="X24" t="n">
-        <v>1.532115496539619</v>
+        <v>0.08252272414311104</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.974672694866748e-07</v>
+        <v>5.295700562196138e-07</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.2417540072056719</v>
+        <v>0.1112604551891144</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.008525349197972388</v>
+        <v>0.01230582517888717</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.08725675891186</v>
+        <v>3.010518596890279</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.186506925479378</v>
+        <v>0.6448987862017143</v>
       </c>
       <c r="AD24" t="n">
-        <v>5.594472342363817e-05</v>
+        <v>1.779821776346035e-05</v>
       </c>
       <c r="AE24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AM24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AN24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AR24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">

--- a/sorted_result/simulation_summary.xlsx
+++ b/sorted_result/simulation_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -805,88 +805,88 @@
         <v>0.009901</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03204163957519452</v>
+        <v>0.0311870418434864</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0009489760563657828</v>
+        <v>0.0009236654668963446</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03126943839882289</v>
+        <v>0.03043543641010731</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004270050741306628</v>
+        <v>0.00415616219733136</v>
       </c>
       <c r="U5" t="n">
-        <v>0.292911200316941</v>
+        <v>0.2850988270831897</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0005863186891279534</v>
+        <v>0.0005706807059151744</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001706328091416055</v>
+        <v>0.001660817807429123</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02070534015927078</v>
+        <v>0.02015309823379653</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001872609587358418</v>
+        <v>0.001822664330906242</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03849328945846709</v>
+        <v>0.03746661671970199</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.005492864057625634</v>
+        <v>0.005346361281036703</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2129684379328438</v>
+        <v>0.2072882559447871</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.05206833117271097</v>
+        <v>0.05067959207246614</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001233823776359944</v>
+        <v>0.001200915878556205</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -939,88 +939,88 @@
         <v>0.010236</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04295992965026307</v>
+        <v>0.04181412503725956</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001853794906551302</v>
+        <v>0.001804351465354329</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03084008934992105</v>
+        <v>0.03001753873286331</v>
       </c>
       <c r="T6" t="n">
-        <v>0.006306962642808162</v>
+        <v>0.00613874665760982</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8584896297827042</v>
+        <v>0.8355924466162348</v>
       </c>
       <c r="V6" t="n">
-        <v>36.46953922202291</v>
+        <v>35.49684288348384</v>
       </c>
       <c r="W6" t="n">
-        <v>0.002189368249823073</v>
+        <v>0.002130974573189215</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03175881329996797</v>
+        <v>0.0309117589616842</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.002210304152021717</v>
+        <v>0.002151352084033128</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01695779073661032</v>
+        <v>0.01650550147518604</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.003237214165846238</v>
+        <v>0.003150872894929277</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.18333784842925</v>
+        <v>0.1784479579154957</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.413871705832724</v>
+        <v>0.4028331377159844</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.001358980009664111</v>
+        <v>0.001322734010736057</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1031,88 +1031,88 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.44</v>
+        <v>-1.447</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0593</v>
+        <v>-0.05965</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.321</v>
+        <v>-1.311</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1785</v>
+        <v>-0.186</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.769</v>
+        <v>-2.974</v>
       </c>
       <c r="H7" t="n">
-        <v>2.50311</v>
+        <v>3.2806</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07513</v>
+        <v>-0.07636</v>
       </c>
       <c r="J7" t="n">
-        <v>0.13235</v>
+        <v>0.13565</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01341</v>
+        <v>0.01323</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2065</v>
+        <v>0.2202</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05420000000000001</v>
+        <v>0.04858</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4562</v>
+        <v>0.3477</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7287</v>
+        <v>0.6454</v>
       </c>
       <c r="P7" t="n">
-        <v>0.009146999999999999</v>
+        <v>0.008538</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03681787005729088</v>
+        <v>0.03683295625749672</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002226606785621965</v>
+        <v>0.001859659467035117</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03212821536005731</v>
+        <v>0.03604010112206806</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004552166761249218</v>
+        <v>0.004082482904638633</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5974287498196844</v>
+        <v>0.7262567651243524</v>
       </c>
       <c r="V7" t="n">
-        <v>9.966330581228647</v>
+        <v>14.72754870000813</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002485088864943598</v>
+        <v>0.002006212573205763</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03003336108026835</v>
+        <v>0.03783887624593991</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0009837004964249366</v>
+        <v>0.001360596274514311</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02070560847263905</v>
+        <v>0.02317949285227977</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.002887521043694363</v>
+        <v>0.002081559244626221</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1182800819148253</v>
+        <v>0.09611572885502838</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1726982274888129</v>
+        <v>0.2400315719974261</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.002175418478260115</v>
+        <v>0.001841326816305146</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1207,88 +1207,88 @@
         <v>0.01208</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04357624225296264</v>
+        <v>0.04241399967488387</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002075143903979245</v>
+        <v>0.002019796758926111</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04351245032554864</v>
+        <v>0.04235190917215327</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004967673276069776</v>
+        <v>0.004835178111344098</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9196835204448202</v>
+        <v>0.8951542060626086</v>
       </c>
       <c r="V8" t="n">
-        <v>2.897896777549769</v>
+        <v>2.820605601266284</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002661432362886983</v>
+        <v>0.00259044804090558</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02435866261608885</v>
+        <v>0.02370898119856026</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0011860766323378</v>
+        <v>0.001154442221206961</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01544164642920065</v>
+        <v>0.01502979497006216</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.002321900562518175</v>
+        <v>0.002259972053856093</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.05979929393860396</v>
+        <v>0.05820435867201917</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3846377227701123</v>
+        <v>0.3743788680496073</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.001292542713672035</v>
+        <v>0.001258068695304539</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1341,88 +1341,88 @@
         <v>0.008318000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0530094331227944</v>
+        <v>0.05159559344709497</v>
       </c>
       <c r="R9" t="n">
-        <v>0.007300692509009752</v>
+        <v>0.007105972284301646</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03470510689285412</v>
+        <v>0.03377947056392304</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01112754340464336</v>
+        <v>0.01083075542877294</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08897459072991319</v>
+        <v>0.08660150731640695</v>
       </c>
       <c r="V9" t="n">
-        <v>6.324555320336805e-05</v>
+        <v>6.155870112510945e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>0.008414438648999573</v>
+        <v>0.008190013173949944</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02071499725105246</v>
+        <v>0.02016249775671342</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001183262908702504</v>
+        <v>0.00115170354372624</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01664531966249574</v>
+        <v>0.0162013644649553</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.004292836410165709</v>
+        <v>0.004178340138833774</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1033870827951389</v>
+        <v>0.1006295969855474</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.05349974039397028</v>
+        <v>0.05207282350102032</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.001353430209997299</v>
+        <v>0.001317332232402409</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1475,88 +1475,88 @@
         <v>0.01029</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05506561742341781</v>
+        <v>0.05359693628321832</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001817324040083845</v>
+        <v>0.001768853330625001</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0402906109823782</v>
+        <v>0.03921600103072861</v>
       </c>
       <c r="T10" t="n">
-        <v>0.006549809157525126</v>
+        <v>0.006375116098014054</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9305082243352585</v>
+        <v>0.9056901991531682</v>
       </c>
       <c r="V10" t="n">
-        <v>36.26453527805553</v>
+        <v>35.29730669671704</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002317110269279389</v>
+        <v>0.002255309524795117</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04487761134463376</v>
+        <v>0.04368065933568312</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001834968967342802</v>
+        <v>0.001786027641679183</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03014944259665324</v>
+        <v>0.02934531254597662</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.003035145978550473</v>
+        <v>0.002954194163878658</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1354718502945251</v>
+        <v>0.1318586164679506</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3552549163003316</v>
+        <v>0.3457797443155793</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.002719448473496051</v>
+        <v>0.002646916776374473</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1609,88 +1609,88 @@
         <v>0.009520000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03921450978627397</v>
+        <v>0.03816860103885334</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001853195438515144</v>
+        <v>0.00180376798601384</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03972125095937666</v>
+        <v>0.03866182667833049</v>
       </c>
       <c r="T11" t="n">
-        <v>0.005169354139756946</v>
+        <v>0.005031479849277376</v>
       </c>
       <c r="U11" t="n">
-        <v>0.8742971780553539</v>
+        <v>0.850978384288529</v>
       </c>
       <c r="V11" t="n">
-        <v>39.16505420794297</v>
+        <v>38.12046451365516</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002204439964153152</v>
+        <v>0.00214564430269423</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03055486867914833</v>
+        <v>0.02973992531757161</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001430811735422317</v>
+        <v>0.001392649878544685</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03001203462316779</v>
+        <v>0.02921156944557557</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.002048197039132493</v>
+        <v>0.001993568606663359</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0893335820892059</v>
+        <v>0.08695092384727572</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4194048163767317</v>
+        <v>0.4082186720503196</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.002246261090988509</v>
+        <v>0.002186349998465359</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1745,88 +1745,88 @@
         <v>0.001812</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08495750571772798</v>
+        <v>0.08269156387952829</v>
       </c>
       <c r="R12" t="n">
-        <v>2.158934922594937e-05</v>
+        <v>2.1013529476331e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.06214677966091426</v>
+        <v>0.0604892334917633</v>
       </c>
       <c r="T12" t="n">
-        <v>0.006386974592437677</v>
+        <v>0.006216624570667876</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03769382195910475</v>
+        <v>0.0366884721963355</v>
       </c>
       <c r="V12" t="n">
-        <v>8.057414689121063e-10</v>
+        <v>7.8425115690546e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.085544304649362</v>
+        <v>1.056591238803749</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05049796475546758</v>
+        <v>0.04915110964105865</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.505582205586192e-05</v>
+        <v>1.465426110116281e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.04739667123801468</v>
+        <v>0.04613253219058968</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.009501461875826145</v>
+        <v>0.00924804388989767</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.581015394709029</v>
+        <v>0.5655188581712977</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.220577524794446</v>
+        <v>0.2146943972499663</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0008267043002186452</v>
+        <v>0.0008046548786182872</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1879,88 +1879,88 @@
         <v>0.0010601</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.07997221739801615</v>
+        <v>0.07783924054370683</v>
       </c>
       <c r="R13" t="n">
-        <v>2.109133576719228e-05</v>
+        <v>2.052879877020008e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07866242926440661</v>
+        <v>0.07656438638922075</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01483548299030252</v>
+        <v>0.01443979880308878</v>
       </c>
       <c r="U13" t="n">
-        <v>39.76985639638254</v>
+        <v>38.70913573672513</v>
       </c>
       <c r="V13" t="n">
-        <v>1.236360698897283</v>
+        <v>1.20338513763204</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0003134131104114469</v>
+        <v>0.000305053921031745</v>
       </c>
       <c r="X13" t="n">
-        <v>0.04033526166189247</v>
+        <v>0.03925946081084015</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.450708639098686e-05</v>
+        <v>1.412016102487579e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.04138759878675413</v>
+        <v>0.04028373055426248</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.005169354139756947</v>
+        <v>0.005031479849277374</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.548871990980677</v>
+        <v>1.507561293159114</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.337842829993146</v>
+        <v>0.3288320640019606</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0001061994454892407</v>
+        <v>0.0001033669498233815</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1971,88 +1971,88 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.36</v>
+        <v>-2.443</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0004736</v>
+        <v>-0.0005380000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.468</v>
+        <v>-1.716</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.11242</v>
+        <v>-0.11364</v>
       </c>
       <c r="G14" t="n">
-        <v>-11.44</v>
+        <v>-10.053</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.484</v>
+        <v>-7.333</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.003019</v>
+        <v>-0.003354</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6607000000000001</v>
+        <v>0.5766</v>
       </c>
       <c r="K14" t="n">
-        <v>0.000629</v>
+        <v>0.0006263</v>
       </c>
       <c r="L14" t="n">
-        <v>1.0111</v>
+        <v>0.8779</v>
       </c>
       <c r="M14" t="n">
-        <v>0.124</v>
+        <v>0.1221</v>
       </c>
       <c r="N14" t="n">
-        <v>4.87</v>
+        <v>5.326</v>
       </c>
       <c r="O14" t="n">
-        <v>1.556</v>
+        <v>1.742</v>
       </c>
       <c r="P14" t="n">
-        <v>0.001349</v>
+        <v>0.0009511000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0758653778449403</v>
+        <v>0.08895067297228411</v>
       </c>
       <c r="R14" t="n">
-        <v>6.64366030304246e-05</v>
+        <v>3.06883980972904e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06613118276073204</v>
+        <v>0.07530677998102901</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01034019127267748</v>
+        <v>0.01592148792600044</v>
       </c>
       <c r="U14" t="n">
-        <v>15.88937380767411</v>
+        <v>25.51548290308803</v>
       </c>
       <c r="V14" t="n">
-        <v>1.149107866515972</v>
+        <v>1.230763538982565</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0003528125092264538</v>
+        <v>0.0002904861824979326</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04948411641908725</v>
+        <v>0.04422467888207014</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.236482466066094e-05</v>
+        <v>1.031773015520156e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.06181594544380206</v>
+        <v>0.04492079449183616</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.007803133273813084</v>
+        <v>0.004653553003411</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.679364959342271</v>
+        <v>1.81381856252983</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1478888471491718</v>
+        <v>0.2130101719010933</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0001467764740458543</v>
+        <v>5.507056079854886e-05</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2147,88 +2147,88 @@
         <v>0.001162</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1585664949897465</v>
+        <v>0.1543372929657638</v>
       </c>
       <c r="R15" t="n">
-        <v>2.212188458919758e-05</v>
+        <v>2.153186133690208e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0818942407417436</v>
+        <v>0.07971000069330268</v>
       </c>
       <c r="T15" t="n">
-        <v>0.006852704251283253</v>
+        <v>0.006669932533391923</v>
       </c>
       <c r="U15" t="n">
-        <v>216.5234797430626</v>
+        <v>210.7484795525849</v>
       </c>
       <c r="V15" t="n">
-        <v>116.0539343006805</v>
+        <v>112.9586049004352</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0003921465145693493</v>
+        <v>0.0003816873893094908</v>
       </c>
       <c r="X15" t="n">
-        <v>0.02435410072702794</v>
+        <v>0.02370454098180127</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.265833059030032e-05</v>
+        <v>1.232071426500915e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04516746616758571</v>
+        <v>0.04396278330348834</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.005121848624601598</v>
+        <v>0.004985241376197075</v>
       </c>
       <c r="AB15" t="n">
-        <v>26.0063904326097</v>
+        <v>25.31276168675647</v>
       </c>
       <c r="AC15" t="n">
-        <v>58.02421333661778</v>
+        <v>56.4766220847641</v>
       </c>
       <c r="AD15" t="n">
-        <v>4.70932880331983e-05</v>
+        <v>4.583724066279456e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -2281,88 +2281,88 @@
         <v>0.001619</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1139005414093072</v>
+        <v>0.1108626461698866</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0001285171843243801</v>
+        <v>0.0001250894416849505</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08246884933786275</v>
+        <v>0.08026928363164108</v>
       </c>
       <c r="T16" t="n">
-        <v>0.002141261310536385</v>
+        <v>0.002084150716845189</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02838357310527028</v>
+        <v>0.02762654139543501</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0001370320319406302</v>
+        <v>0.0001333771857710702</v>
       </c>
       <c r="W16" t="n">
-        <v>0.000428952211790545</v>
+        <v>0.0004175114243630761</v>
       </c>
       <c r="X16" t="n">
-        <v>0.04872097426502608</v>
+        <v>0.04742151410488702</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.340646610159937e-05</v>
+        <v>1.304889590005707e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.04793745925682755</v>
+        <v>0.04665889659624355</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.004927248499698158</v>
+        <v>0.004795831523312716</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.5711285124888947</v>
+        <v>0.5558956736654818</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.220577524794446</v>
+        <v>0.2146943972499663</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.563802688536443e-05</v>
+        <v>7.362064927722387e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -2415,88 +2415,88 @@
         <v>0.0010023</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1215638835254032</v>
+        <v>0.1183215956619924</v>
       </c>
       <c r="R17" t="n">
-        <v>5.620211542084314e-05</v>
+        <v>5.470312220474594e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.09048634028281716</v>
+        <v>0.08807293628160219</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0186213288701126</v>
+        <v>0.01812467059591777</v>
       </c>
       <c r="U17" t="n">
-        <v>40.547094826743</v>
+        <v>39.46564407310824</v>
       </c>
       <c r="V17" t="n">
-        <v>1.236360698897283</v>
+        <v>1.20338513763204</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0003266054364383898</v>
+        <v>0.0003178943882884112</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0563642912962927</v>
+        <v>0.05486097261067722</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.979028942576525e-05</v>
+        <v>1.926245325142044e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03570807565056769</v>
+        <v>0.03475568866727922</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.005416025603090643</v>
+        <v>0.005271572221283758</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.239166386460403</v>
+        <v>1.20611599337447</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.337842829993146</v>
+        <v>0.3288320640019606</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.362827053667781e-05</v>
+        <v>7.166449609116077e-05</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -2549,88 +2549,88 @@
         <v>0.0009655</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.09807026959164426</v>
+        <v>0.09545459102300127</v>
       </c>
       <c r="R18" t="n">
-        <v>4.250084966470933e-05</v>
+        <v>4.136728939124424e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07795297727904092</v>
+        <v>0.07587385653348035</v>
       </c>
       <c r="T18" t="n">
-        <v>0.01724678391919942</v>
+        <v>0.01678678678384628</v>
       </c>
       <c r="U18" t="n">
-        <v>62.20955268731286</v>
+        <v>60.55033226906964</v>
       </c>
       <c r="V18" t="n">
-        <v>1.327253220418437</v>
+        <v>1.29185342169996</v>
       </c>
       <c r="W18" t="n">
-        <v>0.000331602171283603</v>
+        <v>0.0003227578528540357</v>
       </c>
       <c r="X18" t="n">
-        <v>0.05247052082413093</v>
+        <v>0.05107105473337073</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.590282993683828e-05</v>
+        <v>1.547867803412844e-05</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.03814941385890192</v>
+        <v>0.03713191278898006</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.006848357467305576</v>
+        <v>0.00666570168454668</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.228929525146897</v>
+        <v>1.196152164233297</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.4090422417740686</v>
+        <v>0.3981324825786142</v>
       </c>
       <c r="AD18" t="n">
-        <v>4.361256190085096e-05</v>
+        <v>4.244935062425635e-05</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -2646,10 +2646,10 @@
         <v>-3.274</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.551e-06</v>
+        <v>-1.548823529411765e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.16</v>
+        <v>-1.155454545454546</v>
       </c>
       <c r="F19" t="n">
         <v>-0.03687</v>
@@ -2667,10 +2667,10 @@
         <v>2.023</v>
       </c>
       <c r="K19" t="n">
-        <v>1.491e-05</v>
+        <v>1.488529411764706e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.58</v>
+        <v>2.567272727272727</v>
       </c>
       <c r="M19" t="n">
         <v>0.2013</v>
@@ -2685,88 +2685,88 @@
         <v>0.0003058</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2169587774465719</v>
+        <v>0.2084472509059699</v>
       </c>
       <c r="R19" t="n">
-        <v>1.305075561882231e-07</v>
+        <v>1.289059959552944e-07</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08192137151629671</v>
+        <v>0.07731982267410459</v>
       </c>
       <c r="T19" t="n">
-        <v>0.05027831540535144</v>
+        <v>0.04893731866270093</v>
       </c>
       <c r="U19" t="n">
-        <v>8.268890069771528e-06</v>
+        <v>8.048346589754324e-06</v>
       </c>
       <c r="V19" t="n">
-        <v>1.156290167753931e-21</v>
+        <v>1.125450205515423e-21</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0004401177801957613</v>
+        <v>0.0004283791906096378</v>
       </c>
       <c r="X19" t="n">
-        <v>0.07008724721532608</v>
+        <v>0.06733764901122541</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.806043066438984e-07</v>
+        <v>6.410844755668586e-07</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1220200347848207</v>
+        <v>0.120284655165978</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03849112451808425</v>
+        <v>0.03746450952146858</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.881049191604411</v>
+        <v>2.804207365258215</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.5339423606012584</v>
+        <v>0.5197013312319013</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0002233098495115899</v>
+        <v>0.0002173538468416009</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -2780,10 +2780,10 @@
         <v>-3.609</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.988e-07</v>
+        <v>-8.054705882352942e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.251</v>
+        <v>-1.241739130434782</v>
       </c>
       <c r="F20" t="n">
         <v>-0.03772</v>
@@ -2801,10 +2801,10 @@
         <v>1.801</v>
       </c>
       <c r="K20" t="n">
-        <v>1.469e-05</v>
+        <v>1.467941176470588e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.557</v>
+        <v>2.555217391304348</v>
       </c>
       <c r="M20" t="n">
         <v>0.1705</v>
@@ -2819,88 +2819,88 @@
         <v>0.000117</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1344494948546356</v>
+        <v>0.1291748963465962</v>
       </c>
       <c r="R20" t="n">
-        <v>1.135027831278942e-06</v>
+        <v>1.119484438569668e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1587765725792065</v>
+        <v>0.1472058599967791</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1115242753843306</v>
+        <v>0.1085497586605477</v>
       </c>
       <c r="U20" t="n">
-        <v>10.87325464921459</v>
+        <v>10.58324892907357</v>
       </c>
       <c r="V20" t="n">
-        <v>1.82465339174321</v>
+        <v>1.775987197677897</v>
       </c>
       <c r="W20" t="n">
-        <v>8.166707482891199e-05</v>
+        <v>7.948889363003058e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>0.08238797107453118</v>
+        <v>0.07915580222346953</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.118278625016464e-07</v>
+        <v>5.803757465040428e-07</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1026374417278823</v>
+        <v>0.095196904324066</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01684735389707635</v>
+        <v>0.01639801014885969</v>
       </c>
       <c r="AB20" t="n">
-        <v>2.870927066684596</v>
+        <v>2.79435521232208</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.634311525286362</v>
+        <v>0.6173935024294516</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.76572301841987e-05</v>
+        <v>1.718628584228226e-05</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2911,88 +2911,88 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-3.349</v>
+        <v>-3.736</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.396e-06</v>
+        <v>-1.6056e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.587</v>
+        <v>-1.677</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.05554</v>
+        <v>-0.06371</v>
       </c>
       <c r="G21" t="n">
-        <v>-41.07</v>
+        <v>-52.05</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.654</v>
+        <v>-7.081999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.000245</v>
+        <v>-0.0002065</v>
       </c>
       <c r="J21" t="n">
-        <v>1.833</v>
+        <v>1.681</v>
       </c>
       <c r="K21" t="n">
-        <v>1.51e-05</v>
+        <v>1.479e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>2.316</v>
+        <v>2.314</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1716</v>
+        <v>0.1692</v>
       </c>
       <c r="N21" t="n">
-        <v>24.72</v>
+        <v>22.87</v>
       </c>
       <c r="O21" t="n">
-        <v>4.040999999999999</v>
+        <v>4.162</v>
       </c>
       <c r="P21" t="n">
-        <v>9.857e-05</v>
+        <v>0.00010372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5826081206284566</v>
+        <v>0.1902162512043127</v>
       </c>
       <c r="R21" t="n">
-        <v>1.415940990609739e-07</v>
+        <v>4.843394585526882e-07</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1332541431500975</v>
+        <v>0.28829190453813</v>
       </c>
       <c r="T21" t="n">
-        <v>0.008823478779811158</v>
+        <v>0.01225755549310982</v>
       </c>
       <c r="U21" t="n">
-        <v>5.438147151782897</v>
+        <v>7.341699772910604</v>
       </c>
       <c r="V21" t="n">
-        <v>1.160959373391966</v>
+        <v>2.390596392348803</v>
       </c>
       <c r="W21" t="n">
-        <v>3.447382259692773e-05</v>
+        <v>0.0001690465090506817</v>
       </c>
       <c r="X21" t="n">
-        <v>0.09416887903005851</v>
+        <v>0.07752418977325719</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.41602560309064e-07</v>
+        <v>5.173651192984185e-07</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.07791733511299714</v>
+        <v>0.1013464903739204</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01325979721648194</v>
+        <v>0.01290822304665604</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.63303795811775</v>
+        <v>2.640307221181319</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.5902626534010094</v>
+        <v>0.8774179290521834</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.969900642473451e-06</v>
+        <v>7.084066628709812e-06</v>
       </c>
       <c r="AE21" t="n">
         <v>10</v>
@@ -3048,10 +3048,10 @@
         <v>-1.157</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.733e-06</v>
+        <v>-1.731470588235294e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4273</v>
+        <v>-0.4274545454545455</v>
       </c>
       <c r="F22" t="n">
         <v>-0.05506</v>
@@ -3069,10 +3069,10 @@
         <v>3.669</v>
       </c>
       <c r="K22" t="n">
-        <v>1.402e-05</v>
+        <v>1.399117647058824e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>2.856</v>
+        <v>2.865</v>
       </c>
       <c r="M22" t="n">
         <v>0.1689</v>
@@ -3087,88 +3087,88 @@
         <v>0.0001555</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08124722217473718</v>
+        <v>0.0780598061317944</v>
       </c>
       <c r="R22" t="n">
-        <v>2.856201829158594e-07</v>
+        <v>2.694453602106324e-07</v>
       </c>
       <c r="S22" t="n">
-        <v>0.07842058969995627</v>
+        <v>0.07265818688359985</v>
       </c>
       <c r="T22" t="n">
-        <v>0.008532838527320983</v>
+        <v>0.008305255153087995</v>
       </c>
       <c r="U22" t="n">
-        <v>734.2959561527098</v>
+        <v>714.711201225988</v>
       </c>
       <c r="V22" t="n">
-        <v>19.02074890452237</v>
+        <v>18.51343750957808</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0001770666277610399</v>
+        <v>0.0001723439999413657</v>
       </c>
       <c r="X22" t="n">
-        <v>0.07709301740970682</v>
+        <v>0.0740685752944787</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.116422361159967e-07</v>
+        <v>4.763291751152281e-07</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.3076867093507795</v>
+        <v>0.2863855210492784</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01259144330267362</v>
+        <v>0.01225561095988282</v>
       </c>
       <c r="AB22" t="n">
-        <v>355.2156104239916</v>
+        <v>345.7414867848673</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.48826760911718</v>
+        <v>9.235201533719829</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.929637823652913e-05</v>
+        <v>2.851500066908459e-05</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -3182,10 +3182,10 @@
         <v>-4.677</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01282</v>
+        <v>0.01281764705882353</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.788</v>
+        <v>-1.787826086956522</v>
       </c>
       <c r="F23" t="n">
         <v>-0.02402</v>
@@ -3203,10 +3203,10 @@
         <v>2.103</v>
       </c>
       <c r="K23" t="n">
-        <v>1.485e-05</v>
+        <v>1.482058823529412e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>2.487</v>
+        <v>2.481304347826087</v>
       </c>
       <c r="M23" t="n">
         <v>0.1884</v>
@@ -3221,88 +3221,88 @@
         <v>0.0001374</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1655328097722958</v>
+        <v>0.1590387793380386</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0001549193338482972</v>
+        <v>0.0001546659905326671</v>
       </c>
       <c r="S23" t="n">
-        <v>0.07020604595680408</v>
+        <v>0.06741705487884762</v>
       </c>
       <c r="T23" t="n">
-        <v>0.001546178083749304</v>
+        <v>0.001504939236402307</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01531493461371031</v>
+        <v>0.01490646274536476</v>
       </c>
       <c r="V23" t="n">
-        <v>0.000156702123647242</v>
+        <v>0.0001525226471535844</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0001946506842754187</v>
+        <v>0.000189459063763403</v>
       </c>
       <c r="X23" t="n">
-        <v>0.08577101297446979</v>
+        <v>0.08240612374556412</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.441609239104834e-07</v>
+        <v>5.091760496668783e-07</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.08165646194746486</v>
+        <v>0.07812020736287734</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01178699848703365</v>
+        <v>0.01147262187259648</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.881049191604411</v>
+        <v>2.804207365258215</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.5339423606012584</v>
+        <v>0.5197013312319013</v>
       </c>
       <c r="AD23" t="n">
-        <v>4.247875285886401e-06</v>
+        <v>4.134578193976415e-06</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -3316,10 +3316,10 @@
         <v>-3.599</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.4863e-06</v>
+        <v>-1.483882352941177e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.598</v>
+        <v>-1.577391304347826</v>
       </c>
       <c r="F24" t="n">
         <v>-0.07814</v>
@@ -3337,10 +3337,10 @@
         <v>1.771</v>
       </c>
       <c r="K24" t="n">
-        <v>1.484e-05</v>
+        <v>1.481176470588235e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>2.323</v>
+        <v>2.315217391304348</v>
       </c>
       <c r="M24" t="n">
         <v>0.1679</v>
@@ -3355,88 +3355,88 @@
         <v>0.00010859</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1494768655455865</v>
+        <v>0.143612727098316</v>
       </c>
       <c r="R24" t="n">
-        <v>8.280708571399216e-07</v>
+        <v>7.779406289064653e-07</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3226900817950388</v>
+        <v>0.3021170361917915</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02013488956457863</v>
+        <v>0.01959786239686144</v>
       </c>
       <c r="U24" t="n">
-        <v>11.04204087416211</v>
+        <v>10.74753337674327</v>
       </c>
       <c r="V24" t="n">
-        <v>1.868285310117275</v>
+        <v>1.81845538850971</v>
       </c>
       <c r="W24" t="n">
-        <v>6.921817359303518e-05</v>
+        <v>6.737202293002794e-05</v>
       </c>
       <c r="X24" t="n">
-        <v>0.08252272414311104</v>
+        <v>0.0792852687840172</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.295700562196138e-07</v>
+        <v>4.934508700375553e-07</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.1112604551891144</v>
+        <v>0.1048752317244116</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01230582517888717</v>
+        <v>0.01197761069223477</v>
       </c>
       <c r="AB24" t="n">
-        <v>3.010518596890279</v>
+        <v>2.930223630768782</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.6448987862017143</v>
+        <v>0.6276983854988754</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.779821776346035e-05</v>
+        <v>1.732351307509992e-05</v>
       </c>
       <c r="AE24" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -3450,10 +3450,10 @@
         <v>-3.665999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.4452e-06</v>
+        <v>-1.465529411764706e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.751</v>
+        <v>-1.733478260869565</v>
       </c>
       <c r="F25" t="n">
         <v>-0.08423</v>
@@ -3471,10 +3471,10 @@
         <v>1.717</v>
       </c>
       <c r="K25" t="n">
-        <v>1.466e-05</v>
+        <v>1.462941176470588e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>2.309</v>
+        <v>2.296521739130435</v>
       </c>
       <c r="M25" t="n">
         <v>0.1676</v>
@@ -3489,88 +3489,88 @@
         <v>0.00010841</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1841014213235014</v>
+        <v>0.1768789242565486</v>
       </c>
       <c r="R25" t="n">
-        <v>1.117081196690733e-06</v>
+        <v>1.044698832498575e-06</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3150819999090184</v>
+        <v>0.2903071836341038</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02624855763233054</v>
+        <v>0.0255484699304963</v>
       </c>
       <c r="U25" t="n">
-        <v>11.36245767624437</v>
+        <v>11.05940419067102</v>
       </c>
       <c r="V25" t="n">
-        <v>2.293117480151808</v>
+        <v>2.231956658700117</v>
       </c>
       <c r="W25" t="n">
-        <v>9.794472420707507e-05</v>
+        <v>9.533239411879389e-05</v>
       </c>
       <c r="X25" t="n">
-        <v>0.07454305243727724</v>
+        <v>0.07161864819466206</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.561774297230455e-07</v>
+        <v>5.161215570731171e-07</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.130677720620872</v>
+        <v>0.1230893502391352</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01468332387438212</v>
+        <v>0.01429169799495313</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.822213473302275</v>
+        <v>2.746940882240883</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.6999912697868294</v>
+        <v>0.6813214713836788</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.445051465034359e-05</v>
+        <v>2.37983834037436e-05</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
